--- a/buySellDf.xlsx
+++ b/buySellDf.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="157">
   <si>
     <t>Ngày Giao Dịch</t>
   </si>
   <si>
-    <t>MA_TP</t>
-  </si>
-  <si>
-    <t>Số HĐ_y</t>
+    <t>MÃ TP</t>
+  </si>
+  <si>
+    <t>Số HD mua</t>
   </si>
   <si>
     <t>SỐ LƯỢNG_y</t>
@@ -58,427 +58,433 @@
     <t>TPS.2021.01</t>
   </si>
   <si>
-    <t>1/LTKH-VIG/BOND.TPS.2020.01</t>
-  </si>
-  <si>
-    <t>2/LTBP-VIG/BOND.TPS.2020.01</t>
-  </si>
-  <si>
-    <t>2/LQV-VIG/BOND.TPS.2020.01</t>
-  </si>
-  <si>
-    <t>1.E/DNH-VIG/BOND.TPS.2020.01</t>
-  </si>
-  <si>
-    <t>2.E/PNH-VIG/BOND.TPS.2020.01</t>
-  </si>
-  <si>
-    <t>3.E/LQV-VIG/BOND.TPS.2020.01</t>
-  </si>
-  <si>
-    <t>4.E/TVT-VIG/BOND.TPS.2020.01</t>
-  </si>
-  <si>
-    <t>5.E/TVT-VIG/BOND.TPS.2020.01</t>
-  </si>
-  <si>
-    <t>7.E/NHN-VIG/BOND.TPS.2020.01</t>
-  </si>
-  <si>
-    <t>8.E/LTMN-VIG/BOND.TPS.2020.01</t>
-  </si>
-  <si>
-    <t>10.E/TTB-VIG/BOND.TPS.2020.02</t>
-  </si>
-  <si>
-    <t>11.E/TTB-VIG/BOND.TPS.2020.02</t>
-  </si>
-  <si>
-    <t>6.E/TVT-VIG/BOND.TPS.2020.02</t>
-  </si>
-  <si>
-    <t>9.E/TTB-VIG/BOND.TPS.2020.02</t>
-  </si>
-  <si>
-    <t>1.E/PÝN-VIG/BOND.TPS.2020.03</t>
-  </si>
-  <si>
-    <t>1.E/TTTH-VIG/BOND.TPS.2020.01</t>
-  </si>
-  <si>
-    <t>2.E/ĐHH-VIG/BOND.TPS.2020.03</t>
-  </si>
-  <si>
-    <t>3.E/ĐHH-VIG/BOND.TPS.2020.03</t>
-  </si>
-  <si>
-    <t>1.E/ĐTHY-VIG/BOND.TPS.2020.01</t>
-  </si>
-  <si>
-    <t>3.E/NTK-VIG/BOND.TPS.2020.01</t>
-  </si>
-  <si>
-    <t>4.E/PTT-VIG/BOND.TPS.2020.01</t>
-  </si>
-  <si>
-    <t>5.E/NTTM-VIG/BOND.TPS.2020.01</t>
-  </si>
-  <si>
-    <t>6.E/NTH-VIG/BOND.TPS.2020.01</t>
-  </si>
-  <si>
-    <t>7.E/PTTM-VIG/BOND.TPS.2020.01</t>
-  </si>
-  <si>
-    <t>1.E/NTTO-VIG/BOND.TPS.2020.02</t>
-  </si>
-  <si>
-    <t>2.E/PTTM-VIG/BOND.TPS.2020.02</t>
-  </si>
-  <si>
-    <t>3.E/ĐTHH-VIG/BOND.TPS.2020.02</t>
-  </si>
-  <si>
-    <t>4.E/HQV-VIG/BOND.TPS.2020.02</t>
-  </si>
-  <si>
-    <t>1.E/HHY-VIG/BOND.TPS.2020.03</t>
-  </si>
-  <si>
-    <t>2.E/VTHH-VIG/BOND.TPS.2020.03</t>
-  </si>
-  <si>
-    <t>1.E/HNT-VIG/BOND.TPS.2020.05</t>
-  </si>
-  <si>
-    <t>1.E/NNM-VIG/BOND.TPS.2020.02</t>
-  </si>
-  <si>
-    <t>3.E/NNT-VIG/BOND.TPS.2020.02</t>
-  </si>
-  <si>
-    <t>2.E/TKV-VIG/BOND.TPS.2020.03</t>
-  </si>
-  <si>
-    <t>3.E/NTND-VIG/BOND.TPS.2020.03</t>
-  </si>
-  <si>
-    <t>1.E/TKV-VIG/BOND.TPS.2020.04</t>
-  </si>
-  <si>
-    <t>4.E/NQH-VIG/BOND.TPS.2020.04</t>
-  </si>
-  <si>
-    <t>5.E/NTPL-VIG/BOND.TPS.2020.04</t>
-  </si>
-  <si>
-    <t>1.E/VND-VIG/BOND.TPS.2020.03</t>
-  </si>
-  <si>
-    <t>1.E/PNT-VIG/BOND.TPS.2020.04</t>
-  </si>
-  <si>
-    <t>1.E/NTH-VIG/BOND.TPS.2020.05</t>
-  </si>
-  <si>
-    <t>2.E/NTHT-VIG/BOND.TPS.2020.05</t>
-  </si>
-  <si>
-    <t>3.E/NXN-VIG/BOND.TPS.2020.05</t>
-  </si>
-  <si>
-    <t>4.E/NNP-VIG/BOND.TPS.2020.05</t>
-  </si>
-  <si>
-    <t>6.E/LTMA-VIG/BOND.TPS.2020.01</t>
-  </si>
-  <si>
-    <t>7.E/NNT-VIG/BOND.TPS.2020.02</t>
-  </si>
-  <si>
-    <t>1.E/NVT-VIG/BOND.TPS.2020.04</t>
-  </si>
-  <si>
-    <t>10.E/VTT-VIG/BOND.TPS.2020.04</t>
-  </si>
-  <si>
-    <t>11.E/NTTO-VIG/BOND.TPS.2020.04</t>
-  </si>
-  <si>
-    <t>2.E/NTTL-VIG/BOND.TPS.2020.04</t>
-  </si>
-  <si>
-    <t>8.E/NNT-VIG/BOND.TPS.2020.04</t>
-  </si>
-  <si>
-    <t>12.E/ĐTND-VIG/BOND.TPS.2020.05</t>
-  </si>
-  <si>
-    <t>13.E/NMC-VIG/BOND.TPS.2020.05</t>
-  </si>
-  <si>
-    <t>14.E/HTTH-VIG/BOND.TPS.2020.05</t>
-  </si>
-  <si>
-    <t>15.E/NBV-VIG/BOND.TPS.2020.05</t>
-  </si>
-  <si>
-    <t>3.E/KLH-VIG/BOND.TPS.2020.05</t>
-  </si>
-  <si>
-    <t>4.E/TBT-VIG/BOND.TPS.2020.05</t>
-  </si>
-  <si>
-    <t>5.E/TQH-VIG/BOND.TPS.2020.05</t>
-  </si>
-  <si>
-    <t>9.E/TTTX-VIG/BOND.TPS.2020.05</t>
-  </si>
-  <si>
-    <t>1.E/NTHT-VIG/BOND.TPS.2020.05</t>
-  </si>
-  <si>
-    <t>3.E/LVH-VIG/BOND.TPS.2020.01</t>
-  </si>
-  <si>
-    <t>1.E/NAT-VIG/BOND.TPS.2020.05</t>
-  </si>
-  <si>
-    <t>2.E/NTQT-VIG/BOND.TPS.2020.05</t>
-  </si>
-  <si>
-    <t>4.E/NVP-VIG/BOND.TPS.2020.05</t>
-  </si>
-  <si>
-    <t>1.E/MXC-VIG/BOND.TPS.2020.05</t>
-  </si>
-  <si>
-    <t>1.E/NVP-VIG/BOND.TPS.2020.04</t>
-  </si>
-  <si>
-    <t>1.E/NNM-VIG/BOND.TPS.2020.01</t>
-  </si>
-  <si>
-    <t>1.E/PTL-VIG/BOND.TPS.2020.05</t>
-  </si>
-  <si>
-    <t>2.E/HTTH-VIG/BOND.TPS.2020.01</t>
-  </si>
-  <si>
-    <t>1.E/NTTH-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>3.E/VTTM-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>4.E/NTS-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>5.E/NTK-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>1.E/LTT-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>10.E/ĐTU-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>11.E/TTA-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>2.E/LNY-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>3.E/HVT-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>5.E/NTLT-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>6.E/ĐBT-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>7.E/LTTH-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>8.E/NTHT-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>9.E/NTN-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>9.E/NTPN-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>6.E/NNL-VIG/BOND.TPS.2020.01</t>
-  </si>
-  <si>
-    <t>1.E/ĐTLA-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>10.E/VĐT-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>11.E/NHH-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>2.E/PMQ-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>3.E/NTN-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>4.E/ĐTMH-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>5.E/PTH-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>7.E/NTT-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>8.E/ĐXH-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>9.E/ĐTLA-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>1.E/NTHM-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>1.E/NTTT-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>2.E/NHN-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>3.E/PTMA-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>11.E/TLH-VIG/BOND.TPS.2020.01</t>
-  </si>
-  <si>
-    <t>1.E/TTN-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>10.E/LTT-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>2.E/DTTB-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>3.E/NTKO-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>3.E/NTTL-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>4.E/NVH-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>5.E/TTTH-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>6.E/NTH-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>7.E/HTT-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>8.E/NTT-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>9.E/NTO-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>TPS.BOND.TPS.2021.01.3M.000007608</t>
-  </si>
-  <si>
-    <t>TPS.BOND.TPS.2021.01.3M.000007610</t>
-  </si>
-  <si>
-    <t>12.E/LDT-VIG/BOND.TPS.2020.01</t>
-  </si>
-  <si>
-    <t>1.E/NTT-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>10.E/VVP-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>11.E/LMT-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>2.E/BTO-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>3.E/PTH-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>4.E/ĐTD-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>5.E/PHA-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>6.E/PHA-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>7.E/TTL-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>8.E/NAT-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>9.E/NTLA-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>1.E/TTT-VIG/BOND.TPS.2020.01</t>
-  </si>
-  <si>
-    <t>10.E/NTBĐ-VIG/BOND.TPS.2020.01</t>
-  </si>
-  <si>
-    <t>3.E/NTN-VIG/BOND.TPS.2020.01</t>
-  </si>
-  <si>
-    <t>11.E/NTBĐ-VIG/BOND.TPS.2020.02</t>
-  </si>
-  <si>
-    <t>1.E/HHT-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>1.E/NQT-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>2.E/NTHC-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>4.E/PHT-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>7.E/PHA-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>8.E/ĐCT-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>9.E/TCK-VIG/BOND.TPS.2021.01</t>
-  </si>
-  <si>
-    <t>TPS.BOND.TPS.2021.01.3M.000007798</t>
-  </si>
-  <si>
-    <t>TPS.BOND.TPS.2021.01.3M.000007801</t>
-  </si>
-  <si>
-    <t>TPS.BOND.TPS.2021.01.3M.000007803</t>
+    <t>1/LTKH-VIG/BOND.TPS.2020.01_(2021-04-26 00:00:00)</t>
+  </si>
+  <si>
+    <t>2/LTBP-VIG/BOND.TPS.2020.01_(2021-04-26 00:00:00)</t>
+  </si>
+  <si>
+    <t>2/LQV-VIG/BOND.TPS.2020.01_(2021-04-27 00:00:00)</t>
+  </si>
+  <si>
+    <t>1.E/DNH-VIG/BOND.TPS.2020.01_(2021-05-04 00:00:00)</t>
+  </si>
+  <si>
+    <t>2.E/PNH-VIG/BOND.TPS.2020.01_(2021-05-04 00:00:00)</t>
+  </si>
+  <si>
+    <t>3.E/LQV-VIG/BOND.TPS.2020.01_(2021-05-04 00:00:00)</t>
+  </si>
+  <si>
+    <t>4.E/TVT-VIG/BOND.TPS.2020.01_(2021-05-04 00:00:00)</t>
+  </si>
+  <si>
+    <t>5.E/TVT-VIG/BOND.TPS.2020.01_(2021-05-04 00:00:00)</t>
+  </si>
+  <si>
+    <t>7.E/NHN-VIG/BOND.TPS.2020.01_(2021-05-04 00:00:00)</t>
+  </si>
+  <si>
+    <t>8.E/LTMN-VIG/BOND.TPS.2020.01_(2021-05-04 00:00:00)</t>
+  </si>
+  <si>
+    <t>10.E/TTB-VIG/BOND.TPS.2020.02_(2021-05-04 00:00:00)</t>
+  </si>
+  <si>
+    <t>11.E/TTB-VIG/BOND.TPS.2020.02_(2021-05-04 00:00:00)</t>
+  </si>
+  <si>
+    <t>6.E/TVT-VIG/BOND.TPS.2020.02_(2021-05-04 00:00:00)</t>
+  </si>
+  <si>
+    <t>9.E/TTB-VIG/BOND.TPS.2020.02_(2021-05-04 00:00:00)</t>
+  </si>
+  <si>
+    <t>1.E/PÝN-VIG/BOND.TPS.2020.03_(2021-05-05 00:00:00)</t>
+  </si>
+  <si>
+    <t>1.E/TTTH-VIG/BOND.TPS.2020.01_(2021-05-07 00:00:00)</t>
+  </si>
+  <si>
+    <t>2.E/ĐHH-VIG/BOND.TPS.2020.03_(2021-05-07 00:00:00)</t>
+  </si>
+  <si>
+    <t>3.E/ĐHH-VIG/BOND.TPS.2020.03_(2021-05-07 00:00:00)</t>
+  </si>
+  <si>
+    <t>1.E/ĐTHY-VIG/BOND.TPS.2020.01_(2021-05-10 00:00:00)</t>
+  </si>
+  <si>
+    <t>3.E/NTK-VIG/BOND.TPS.2020.01_(2021-05-10 00:00:00)</t>
+  </si>
+  <si>
+    <t>4.E/PTT-VIG/BOND.TPS.2020.01_(2021-05-10 00:00:00)</t>
+  </si>
+  <si>
+    <t>5.E/NTTM-VIG/BOND.TPS.2020.01_(2021-05-10 00:00:00)</t>
+  </si>
+  <si>
+    <t>6.E/NTH-VIG/BOND.TPS.2020.01_(2021-05-10 00:00:00)</t>
+  </si>
+  <si>
+    <t>7.E/PTTM-VIG/BOND.TPS.2020.01_(2021-05-10 00:00:00)</t>
+  </si>
+  <si>
+    <t>1.E/NTTO-VIG/BOND.TPS.2020.02_(2021-05-13 00:00:00)</t>
+  </si>
+  <si>
+    <t>2.E/PTTM-VIG/BOND.TPS.2020.02_(2021-05-13 00:00:00)</t>
+  </si>
+  <si>
+    <t>3.E/ĐTHH-VIG/BOND.TPS.2020.02_(2021-05-13 00:00:00)</t>
+  </si>
+  <si>
+    <t>4.E/HQV-VIG/BOND.TPS.2020.02_(2021-05-13 00:00:00)</t>
+  </si>
+  <si>
+    <t>1.E/HHY-VIG/BOND.TPS.2020.03_(2021-05-17 00:00:00)</t>
+  </si>
+  <si>
+    <t>1.E/HHY-VIG/BOND.TPS.2020.03_(2021-05-20 00:00:00)</t>
+  </si>
+  <si>
+    <t>2.E/VTHH-VIG/BOND.TPS.2020.03_(2021-05-24 00:00:00)</t>
+  </si>
+  <si>
+    <t>1.E/HNT-VIG/BOND.TPS.2020.05_(2021-05-24 00:00:00)</t>
+  </si>
+  <si>
+    <t>1.E/NNM-VIG/BOND.TPS.2020.02_(2021-05-26 00:00:00)</t>
+  </si>
+  <si>
+    <t>3.E/NNT-VIG/BOND.TPS.2020.02_(2021-05-26 00:00:00)</t>
+  </si>
+  <si>
+    <t>2.E/TKV-VIG/BOND.TPS.2020.03_(2021-05-26 00:00:00)</t>
+  </si>
+  <si>
+    <t>3.E/NTND-VIG/BOND.TPS.2020.03_(2021-05-26 00:00:00)</t>
+  </si>
+  <si>
+    <t>1.E/TKV-VIG/BOND.TPS.2020.04_(2021-05-26 00:00:00)</t>
+  </si>
+  <si>
+    <t>4.E/NQH-VIG/BOND.TPS.2020.04_(2021-05-26 00:00:00)</t>
+  </si>
+  <si>
+    <t>5.E/NTPL-VIG/BOND.TPS.2020.04_(2021-05-26 00:00:00)</t>
+  </si>
+  <si>
+    <t>1.E/VND-VIG/BOND.TPS.2020.03_(2021-05-28 00:00:00)</t>
+  </si>
+  <si>
+    <t>1.E/PNT-VIG/BOND.TPS.2020.04_(2021-05-31 00:00:00)</t>
+  </si>
+  <si>
+    <t>1.E/NTH-VIG/BOND.TPS.2020.05_(2021-05-31 00:00:00)</t>
+  </si>
+  <si>
+    <t>2.E/NTHT-VIG/BOND.TPS.2020.05_(2021-05-31 00:00:00)</t>
+  </si>
+  <si>
+    <t>3.E/NXN-VIG/BOND.TPS.2020.05_(2021-05-31 00:00:00)</t>
+  </si>
+  <si>
+    <t>4.E/NNP-VIG/BOND.TPS.2020.05_(2021-05-31 00:00:00)</t>
+  </si>
+  <si>
+    <t>6.E/LTMA-VIG/BOND.TPS.2020.01_(2021-06-01 00:00:00)</t>
+  </si>
+  <si>
+    <t>7.E/NNT-VIG/BOND.TPS.2020.02_(2021-06-01 00:00:00)</t>
+  </si>
+  <si>
+    <t>1.E/NVT-VIG/BOND.TPS.2020.04_(2021-06-01 00:00:00)</t>
+  </si>
+  <si>
+    <t>10.E/VTT-VIG/BOND.TPS.2020.04_(2021-06-01 00:00:00)</t>
+  </si>
+  <si>
+    <t>11.E/NTTO-VIG/BOND.TPS.2020.04_(2021-06-01 00:00:00)</t>
+  </si>
+  <si>
+    <t>2.E/NTTL-VIG/BOND.TPS.2020.04_(2021-06-01 00:00:00)</t>
+  </si>
+  <si>
+    <t>8.E/NNT-VIG/BOND.TPS.2020.04_(2021-06-01 00:00:00)</t>
+  </si>
+  <si>
+    <t>12.E/ĐTND-VIG/BOND.TPS.2020.05_(2021-06-01 00:00:00)</t>
+  </si>
+  <si>
+    <t>13.E/NMC-VIG/BOND.TPS.2020.05_(2021-06-01 00:00:00)</t>
+  </si>
+  <si>
+    <t>14.E/HTTH-VIG/BOND.TPS.2020.05_(2021-06-01 00:00:00)</t>
+  </si>
+  <si>
+    <t>15.E/NBV-VIG/BOND.TPS.2020.05_(2021-06-01 00:00:00)</t>
+  </si>
+  <si>
+    <t>3.E/KLH-VIG/BOND.TPS.2020.05_(2021-06-01 00:00:00)</t>
+  </si>
+  <si>
+    <t>4.E/TBT-VIG/BOND.TPS.2020.05_(2021-06-01 00:00:00)</t>
+  </si>
+  <si>
+    <t>5.E/TQH-VIG/BOND.TPS.2020.05_(2021-06-01 00:00:00)</t>
+  </si>
+  <si>
+    <t>9.E/TTTX-VIG/BOND.TPS.2020.05_(2021-06-01 00:00:00)</t>
+  </si>
+  <si>
+    <t>1.E/NTHT-VIG/BOND.TPS.2020.05_(2021-06-02 00:00:00)</t>
+  </si>
+  <si>
+    <t>3.E/LVH-VIG/BOND.TPS.2020.01_(2021-06-07 00:00:00)</t>
+  </si>
+  <si>
+    <t>1.E/NAT-VIG/BOND.TPS.2020.05_(2021-06-07 00:00:00)</t>
+  </si>
+  <si>
+    <t>2.E/NTQT-VIG/BOND.TPS.2020.05_(2021-06-07 00:00:00)</t>
+  </si>
+  <si>
+    <t>4.E/NVP-VIG/BOND.TPS.2020.05_(2021-06-07 00:00:00)</t>
+  </si>
+  <si>
+    <t>1.E/MXC-VIG/BOND.TPS.2020.05_(2021-06-08 00:00:00)</t>
+  </si>
+  <si>
+    <t>1.E/NVP-VIG/BOND.TPS.2020.04_(2021-06-09 00:00:00)</t>
+  </si>
+  <si>
+    <t>1.E/NNM-VIG/BOND.TPS.2020.01_(2021-06-18 00:00:00)</t>
+  </si>
+  <si>
+    <t>1.E/PTL-VIG/BOND.TPS.2020.05_(2021-06-22 00:00:00)</t>
+  </si>
+  <si>
+    <t>2.E/HTTH-VIG/BOND.TPS.2020.01_(2021-07-19 00:00:00)</t>
+  </si>
+  <si>
+    <t>1.E/NTTH-VIG/BOND.TPS.2021.01_(2021-07-19 00:00:00)</t>
+  </si>
+  <si>
+    <t>3.E/VTTM-VIG/BOND.TPS.2021.01_(2021-07-19 00:00:00)</t>
+  </si>
+  <si>
+    <t>4.E/NTS-VIG/BOND.TPS.2021.01_(2021-07-19 00:00:00)</t>
+  </si>
+  <si>
+    <t>5.E/NTK-VIG/BOND.TPS.2021.01_(2021-07-19 00:00:00)</t>
+  </si>
+  <si>
+    <t>1.E/LTT-VIG/BOND.TPS.2021.01_(2021-07-20 00:00:00)</t>
+  </si>
+  <si>
+    <t>10.E/ĐTU-VIG/BOND.TPS.2021.01_(2021-07-20 00:00:00)</t>
+  </si>
+  <si>
+    <t>11.E/TTA-VIG/BOND.TPS.2021.01_(2021-07-20 00:00:00)</t>
+  </si>
+  <si>
+    <t>2.E/LNY-VIG/BOND.TPS.2021.01_(2021-07-20 00:00:00)</t>
+  </si>
+  <si>
+    <t>3.E/HVT-VIG/BOND.TPS.2021.01_(2021-07-20 00:00:00)</t>
+  </si>
+  <si>
+    <t>5.E/NTLT-VIG/BOND.TPS.2021.01_(2021-07-20 00:00:00)</t>
+  </si>
+  <si>
+    <t>6.E/ĐBT-VIG/BOND.TPS.2021.01_(2021-07-20 00:00:00)</t>
+  </si>
+  <si>
+    <t>7.E/LTTH-VIG/BOND.TPS.2021.01_(2021-07-20 00:00:00)</t>
+  </si>
+  <si>
+    <t>8.E/NTHT-VIG/BOND.TPS.2021.01_(2021-07-20 00:00:00)</t>
+  </si>
+  <si>
+    <t>9.E/NTN-VIG/BOND.TPS.2021.01_(2021-07-20 00:00:00)</t>
+  </si>
+  <si>
+    <t>9.E/NTPN-VIG/BOND.TPS.2021.01_(2021-07-20 00:00:00)</t>
+  </si>
+  <si>
+    <t>6.E/NNL-VIG/BOND.TPS.2020.01_(2021-07-22 00:00:00)</t>
+  </si>
+  <si>
+    <t>1.E/ĐTLA-VIG/BOND.TPS.2021.01_(2021-07-22 00:00:00)</t>
+  </si>
+  <si>
+    <t>10.E/VĐT-VIG/BOND.TPS.2021.01_(2021-07-22 00:00:00)</t>
+  </si>
+  <si>
+    <t>11.E/NHH-VIG/BOND.TPS.2021.01_(2021-07-22 00:00:00)</t>
+  </si>
+  <si>
+    <t>2.E/PMQ-VIG/BOND.TPS.2021.01_(2021-07-22 00:00:00)</t>
+  </si>
+  <si>
+    <t>3.E/NTN-VIG/BOND.TPS.2021.01_(2021-07-22 00:00:00)</t>
+  </si>
+  <si>
+    <t>4.E/ĐTMH-VIG/BOND.TPS.2021.01_(2021-07-22 00:00:00)</t>
+  </si>
+  <si>
+    <t>5.E/PTH-VIG/BOND.TPS.2021.01_(2021-07-22 00:00:00)</t>
+  </si>
+  <si>
+    <t>7.E/NTT-VIG/BOND.TPS.2021.01_(2021-07-22 00:00:00)</t>
+  </si>
+  <si>
+    <t>8.E/ĐXH-VIG/BOND.TPS.2021.01_(2021-07-22 00:00:00)</t>
+  </si>
+  <si>
+    <t>9.E/ĐTLA-VIG/BOND.TPS.2021.01_(2021-07-22 00:00:00)</t>
+  </si>
+  <si>
+    <t>1.E/NTHM-VIG/BOND.TPS.2021.01_(2021-07-23 00:00:00)</t>
+  </si>
+  <si>
+    <t>1.E/NTTT-VIG/BOND.TPS.2021.01_(2021-07-23 00:00:00)</t>
+  </si>
+  <si>
+    <t>2.E/NHN-VIG/BOND.TPS.2021.01_(2021-07-23 00:00:00)</t>
+  </si>
+  <si>
+    <t>3.E/PTMA-VIG/BOND.TPS.2021.01_(2021-07-23 00:00:00)</t>
+  </si>
+  <si>
+    <t>11.E/TLH-VIG/BOND.TPS.2020.01_(2021-07-26 00:00:00)</t>
+  </si>
+  <si>
+    <t>1.E/TTN-VIG/BOND.TPS.2021.01_(2021-07-26 00:00:00)</t>
+  </si>
+  <si>
+    <t>10.E/LTT-VIG/BOND.TPS.2021.01_(2021-07-26 00:00:00)</t>
+  </si>
+  <si>
+    <t>2.E/DTTB-VIG/BOND.TPS.2021.01_(2021-07-26 00:00:00)</t>
+  </si>
+  <si>
+    <t>3.E/NTKO-VIG/BOND.TPS.2021.01_(2021-07-26 00:00:00)</t>
+  </si>
+  <si>
+    <t>3.E/NTTL-VIG/BOND.TPS.2021.01_(2021-07-26 00:00:00)</t>
+  </si>
+  <si>
+    <t>4.E/NVH-VIG/BOND.TPS.2021.01_(2021-07-26 00:00:00)</t>
+  </si>
+  <si>
+    <t>5.E/TTTH-VIG/BOND.TPS.2021.01_(2021-07-26 00:00:00)</t>
+  </si>
+  <si>
+    <t>6.E/NTH-VIG/BOND.TPS.2021.01_(2021-07-26 00:00:00)</t>
+  </si>
+  <si>
+    <t>7.E/HTT-VIG/BOND.TPS.2021.01_(2021-07-26 00:00:00)</t>
+  </si>
+  <si>
+    <t>8.E/NTT-VIG/BOND.TPS.2021.01_(2021-07-26 00:00:00)</t>
+  </si>
+  <si>
+    <t>9.E/NTO-VIG/BOND.TPS.2021.01_(2021-07-26 00:00:00)</t>
+  </si>
+  <si>
+    <t>TPS.BOND.TPS.2021.01.3M.000007608_(2021-07-26 00:00:00)</t>
+  </si>
+  <si>
+    <t>TPS.BOND.TPS.2021.01.3M.000007610_(2021-07-26 00:00:00)</t>
+  </si>
+  <si>
+    <t>12.E/LDT-VIG/BOND.TPS.2020.01_(2021-07-27 00:00:00)</t>
+  </si>
+  <si>
+    <t>1.E/NTT-VIG/BOND.TPS.2021.01_(2021-07-27 00:00:00)</t>
+  </si>
+  <si>
+    <t>10.E/VVP-VIG/BOND.TPS.2021.01_(2021-07-27 00:00:00)</t>
+  </si>
+  <si>
+    <t>11.E/LMT-VIG/BOND.TPS.2021.01_(2021-07-27 00:00:00)</t>
+  </si>
+  <si>
+    <t>2.E/BTO-VIG/BOND.TPS.2021.01_(2021-07-27 00:00:00)</t>
+  </si>
+  <si>
+    <t>3.E/PTH-VIG/BOND.TPS.2021.01_(2021-07-27 00:00:00)</t>
+  </si>
+  <si>
+    <t>4.E/ĐTD-VIG/BOND.TPS.2021.01_(2021-07-27 00:00:00)</t>
+  </si>
+  <si>
+    <t>5.E/PHA-VIG/BOND.TPS.2021.01_(2021-07-27 00:00:00)</t>
+  </si>
+  <si>
+    <t>6.E/PHA-VIG/BOND.TPS.2021.01_(2021-07-27 00:00:00)</t>
+  </si>
+  <si>
+    <t>7.E/TTL-VIG/BOND.TPS.2021.01_(2021-07-27 00:00:00)</t>
+  </si>
+  <si>
+    <t>8.E/NAT-VIG/BOND.TPS.2021.01_(2021-07-27 00:00:00)</t>
+  </si>
+  <si>
+    <t>9.E/NTLA-VIG/BOND.TPS.2021.01_(2021-07-27 00:00:00)</t>
+  </si>
+  <si>
+    <t>1.E/TTT-VIG/BOND.TPS.2020.01_(2021-07-28 00:00:00)</t>
+  </si>
+  <si>
+    <t>10.E/NTBĐ-VIG/BOND.TPS.2020.01_(2021-07-28 00:00:00)</t>
+  </si>
+  <si>
+    <t>3.E/NTN-VIG/BOND.TPS.2020.01_(2021-07-28 00:00:00)</t>
+  </si>
+  <si>
+    <t>11.E/NTBĐ-VIG/BOND.TPS.2020.02_(2021-07-28 00:00:00)</t>
+  </si>
+  <si>
+    <t>1.E/HHT-VIG/BOND.TPS.2021.01_(2021-07-28 00:00:00)</t>
+  </si>
+  <si>
+    <t>1.E/NQT-VIG/BOND.TPS.2021.01_(2021-07-28 00:00:00)</t>
+  </si>
+  <si>
+    <t>2.E/NTHC-VIG/BOND.TPS.2021.01_(2021-07-28 00:00:00)</t>
+  </si>
+  <si>
+    <t>4.E/PHT-VIG/BOND.TPS.2021.01_(2021-07-28 00:00:00)</t>
+  </si>
+  <si>
+    <t>7.E/PHA-VIG/BOND.TPS.2021.01_(2021-07-28 00:00:00)</t>
+  </si>
+  <si>
+    <t>8.E/ĐCT-VIG/BOND.TPS.2021.01_(2021-07-28 00:00:00)</t>
+  </si>
+  <si>
+    <t>9.E/TCK-VIG/BOND.TPS.2021.01_(2021-07-28 00:00:00)</t>
+  </si>
+  <si>
+    <t>TPS.BOND.TPS.2021.01.3M.000007798_(2021-07-28 00:00:00)</t>
+  </si>
+  <si>
+    <t>TPS.BOND.TPS.2021.01.3M.000007801_(2021-07-28 00:00:00)</t>
+  </si>
+  <si>
+    <t>TPS.BOND.TPS.2021.01.3M.000007803_(2021-07-28 00:00:00)</t>
   </si>
   <si>
     <t>Buy</t>
   </si>
   <si>
     <t>Sell</t>
+  </si>
+  <si>
+    <t>BuyThenSellInDate</t>
   </si>
 </sst>
 </file>
@@ -840,7 +846,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I265"/>
+  <dimension ref="A1:I273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -895,7 +901,7 @@
         <v>25000</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I2">
         <v>2548773774</v>
@@ -924,7 +930,7 @@
         <v>33000</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I3">
         <v>3365075075</v>
@@ -953,7 +959,7 @@
         <v>20000</v>
       </c>
       <c r="H4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I4">
         <v>2039019019</v>
@@ -982,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1011,7 +1017,7 @@
         <v>2000</v>
       </c>
       <c r="H6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I6">
         <v>203901901.9</v>
@@ -1040,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1066,13 +1072,13 @@
         <v>1325895896</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="H8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>509959960</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1086,19 +1092,19 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9">
-        <v>50000</v>
+        <v>13000</v>
       </c>
       <c r="F9">
-        <v>5098598599</v>
+        <v>1325895896</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1115,22 +1121,22 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="F10">
-        <v>2039019019</v>
+        <v>5098598599</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="H10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4078878879.2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1144,19 +1150,19 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="F11">
-        <v>1529879880</v>
+        <v>5098598599</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1173,22 +1179,22 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E12">
-        <v>61500</v>
+        <v>20000</v>
       </c>
       <c r="F12">
-        <v>6271276276</v>
+        <v>2039019019</v>
       </c>
       <c r="G12">
-        <v>40415</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I12">
-        <v>4121197247.065691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1202,22 +1208,22 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13">
-        <v>61500</v>
+        <v>15000</v>
       </c>
       <c r="F13">
-        <v>6271276276</v>
+        <v>1529879880</v>
       </c>
       <c r="G13">
-        <v>40415</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I13">
-        <v>4121197247.065691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1231,22 +1237,22 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>65000</v>
+        <v>61500</v>
       </c>
       <c r="F14">
-        <v>6628178178</v>
+        <v>6271276276</v>
       </c>
       <c r="G14">
-        <v>65000</v>
+        <v>40415</v>
       </c>
       <c r="H14" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I14">
-        <v>6628178178</v>
+        <v>4121197247.065691</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1301,7 +1307,7 @@
         <v>8000</v>
       </c>
       <c r="H16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I16">
         <v>815775776</v>
@@ -1318,22 +1324,22 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="F17">
-        <v>815775776</v>
+        <v>2548273273</v>
       </c>
       <c r="G17">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="H17" t="s">
         <v>154</v>
       </c>
       <c r="I17">
-        <v>815775776</v>
+        <v>2548273273</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1344,25 +1350,25 @@
         <v>44320</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="F18">
-        <v>2548273273</v>
+        <v>1732825826</v>
       </c>
       <c r="G18">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="H18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I18">
-        <v>2548273273</v>
+        <v>1732825826</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1373,25 +1379,25 @@
         <v>44320</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="F19">
-        <v>2548273273</v>
+        <v>509654655</v>
       </c>
       <c r="G19">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="H19" t="s">
         <v>154</v>
       </c>
       <c r="I19">
-        <v>2548273273</v>
+        <v>509654655</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1405,22 +1411,22 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E20">
-        <v>17000</v>
+        <v>23500</v>
       </c>
       <c r="F20">
-        <v>1732825826</v>
+        <v>2396341341</v>
       </c>
       <c r="G20">
-        <v>17000</v>
+        <v>23500</v>
       </c>
       <c r="H20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I20">
-        <v>1732825826</v>
+        <v>2396341341</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1434,22 +1440,22 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E21">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="F21">
-        <v>509654655</v>
+        <v>611585586</v>
       </c>
       <c r="G21">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="H21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I21">
-        <v>509654655</v>
+        <v>611585586</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1457,28 +1463,28 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>23500</v>
+        <v>61500</v>
       </c>
       <c r="F22">
-        <v>2396341341</v>
+        <v>6271276276</v>
       </c>
       <c r="G22">
-        <v>23500</v>
+        <v>385</v>
       </c>
       <c r="H22" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I22">
-        <v>2396341341</v>
+        <v>39259209.20747967</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1486,28 +1492,28 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>6000</v>
+        <v>65000</v>
       </c>
       <c r="F23">
-        <v>611585586</v>
+        <v>6628178178</v>
       </c>
       <c r="G23">
-        <v>6000</v>
+        <v>65000</v>
       </c>
       <c r="H23" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I23">
-        <v>611585586</v>
+        <v>6628178178</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1521,22 +1527,22 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>61500</v>
+        <v>8000</v>
       </c>
       <c r="F24">
-        <v>6271276276</v>
+        <v>815775776</v>
       </c>
       <c r="G24">
-        <v>385</v>
+        <v>8000</v>
       </c>
       <c r="H24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I24">
-        <v>39259209.20747967</v>
+        <v>815775776</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1550,22 +1556,22 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>65000</v>
+        <v>25000</v>
       </c>
       <c r="F25">
-        <v>6628178178</v>
+        <v>2548273273</v>
       </c>
       <c r="G25">
-        <v>65000</v>
+        <v>25000</v>
       </c>
       <c r="H25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I25">
-        <v>6628178178</v>
+        <v>2548273273</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1576,25 +1582,25 @@
         <v>44321</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E26">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="F26">
-        <v>815775776</v>
+        <v>1732825826</v>
       </c>
       <c r="G26">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I26">
-        <v>815775776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1605,25 +1611,25 @@
         <v>44321</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E27">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="F27">
-        <v>2548273273</v>
+        <v>509654655</v>
       </c>
       <c r="G27">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="H27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I27">
-        <v>2548273273</v>
+        <v>203861862</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1637,22 +1643,22 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E28">
-        <v>17000</v>
+        <v>23500</v>
       </c>
       <c r="F28">
-        <v>1732825826</v>
+        <v>2396341341</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>23500</v>
       </c>
       <c r="H28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2396341341</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1666,22 +1672,22 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E29">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="F29">
-        <v>509654655</v>
+        <v>611585586</v>
       </c>
       <c r="G29">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="H29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I29">
-        <v>203861862</v>
+        <v>611585586</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1692,25 +1698,25 @@
         <v>44321</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E30">
-        <v>23500</v>
+        <v>230000</v>
       </c>
       <c r="F30">
-        <v>2396341341</v>
+        <v>23388823173</v>
       </c>
       <c r="G30">
-        <v>23500</v>
+        <v>190000</v>
       </c>
       <c r="H30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I30">
-        <v>2396341341</v>
+        <v>19321201751.6087</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1721,25 +1727,25 @@
         <v>44321</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E31">
-        <v>6000</v>
+        <v>230000</v>
       </c>
       <c r="F31">
-        <v>611585586</v>
+        <v>23388823173</v>
       </c>
       <c r="G31">
-        <v>6000</v>
+        <v>112000</v>
       </c>
       <c r="H31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I31">
-        <v>611585586</v>
+        <v>11389339979.89565</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1747,28 +1753,28 @@
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E32">
-        <v>230000</v>
+        <v>61500</v>
       </c>
       <c r="F32">
-        <v>23388823173</v>
+        <v>6271276276</v>
       </c>
       <c r="G32">
-        <v>112000</v>
+        <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I32">
-        <v>11389339979.89565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1776,28 +1782,28 @@
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E33">
-        <v>230000</v>
+        <v>65000</v>
       </c>
       <c r="F33">
-        <v>23388823173</v>
+        <v>6628178178</v>
       </c>
       <c r="G33">
-        <v>112000</v>
+        <v>45385</v>
       </c>
       <c r="H33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I33">
-        <v>11389339979.89565</v>
+        <v>4627997947.823539</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1811,22 +1817,22 @@
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E34">
-        <v>61500</v>
+        <v>8000</v>
       </c>
       <c r="F34">
-        <v>6271276276</v>
+        <v>815775776</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="H34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>815775776</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1840,22 +1846,22 @@
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E35">
-        <v>65000</v>
+        <v>25000</v>
       </c>
       <c r="F35">
-        <v>6628178178</v>
+        <v>2548273273</v>
       </c>
       <c r="G35">
-        <v>45385</v>
+        <v>25000</v>
       </c>
       <c r="H35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I35">
-        <v>4627997947.823539</v>
+        <v>2548273273</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1866,25 +1872,25 @@
         <v>44322</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E36">
-        <v>8000</v>
+        <v>230000</v>
       </c>
       <c r="F36">
-        <v>815775776</v>
+        <v>23388823173</v>
       </c>
       <c r="G36">
-        <v>8000</v>
+        <v>92000</v>
       </c>
       <c r="H36" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I36">
-        <v>815775776</v>
+        <v>9355529269.200001</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1892,28 +1898,28 @@
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E37">
-        <v>25000</v>
+        <v>100000</v>
       </c>
       <c r="F37">
-        <v>2548273273</v>
+        <v>10195095095</v>
       </c>
       <c r="G37">
-        <v>25000</v>
+        <v>100000</v>
       </c>
       <c r="H37" t="s">
         <v>154</v>
       </c>
       <c r="I37">
-        <v>2548273273</v>
+        <v>10195095095</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1921,28 +1927,28 @@
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E38">
-        <v>230000</v>
+        <v>5000</v>
       </c>
       <c r="F38">
-        <v>23388823173</v>
+        <v>500000000</v>
       </c>
       <c r="G38">
-        <v>92000</v>
+        <v>5000</v>
       </c>
       <c r="H38" t="s">
         <v>154</v>
       </c>
       <c r="I38">
-        <v>9355529269.200001</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1953,25 +1959,25 @@
         <v>44323</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E39">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="F39">
-        <v>10195095095</v>
+        <v>1000000000</v>
       </c>
       <c r="G39">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="H39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I39">
-        <v>10195095095</v>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1979,28 +1985,28 @@
         <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E40">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="F40">
-        <v>500000000</v>
+        <v>10195095095</v>
       </c>
       <c r="G40">
-        <v>5000</v>
+        <v>38385</v>
       </c>
       <c r="H40" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I40">
-        <v>500000000</v>
+        <v>3913387252.21575</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2008,28 +2014,28 @@
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E41">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="F41">
-        <v>1000000000</v>
+        <v>4986637137</v>
       </c>
       <c r="G41">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="H41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I41">
-        <v>1000000000</v>
+        <v>4986637137</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2043,22 +2049,22 @@
         <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E42">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="F42">
-        <v>10195095095</v>
+        <v>997327427</v>
       </c>
       <c r="G42">
-        <v>38385</v>
+        <v>10000</v>
       </c>
       <c r="H42" t="s">
         <v>154</v>
       </c>
       <c r="I42">
-        <v>3913387252.21575</v>
+        <v>997327427</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2072,22 +2078,22 @@
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E43">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="F43">
-        <v>4986637137</v>
+        <v>994246571</v>
       </c>
       <c r="G43">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="H43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I43">
-        <v>4986637137</v>
+        <v>994246571</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2101,22 +2107,22 @@
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E44">
-        <v>50000</v>
+        <v>62000</v>
       </c>
       <c r="F44">
-        <v>4986637137</v>
+        <v>6148627035</v>
       </c>
       <c r="G44">
-        <v>50000</v>
+        <v>62000</v>
       </c>
       <c r="H44" t="s">
         <v>154</v>
       </c>
       <c r="I44">
-        <v>4986637137</v>
+        <v>6148627035</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2130,22 +2136,22 @@
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E45">
-        <v>10000</v>
+        <v>65000</v>
       </c>
       <c r="F45">
-        <v>997327427</v>
+        <v>6628178178</v>
       </c>
       <c r="G45">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I45">
-        <v>997327427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2159,22 +2165,22 @@
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E46">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="F46">
-        <v>997327427</v>
+        <v>1097060170</v>
       </c>
       <c r="G46">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="H46" t="s">
         <v>154</v>
       </c>
       <c r="I46">
-        <v>997327427</v>
+        <v>1097060170</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2188,22 +2194,22 @@
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E47">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="F47">
-        <v>994246571</v>
+        <v>815775776</v>
       </c>
       <c r="G47">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I47">
-        <v>994246571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2217,22 +2223,22 @@
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E48">
-        <v>10000</v>
+        <v>31500</v>
       </c>
       <c r="F48">
-        <v>994246571</v>
+        <v>3123899220</v>
       </c>
       <c r="G48">
-        <v>10000</v>
+        <v>31500</v>
       </c>
       <c r="H48" t="s">
         <v>154</v>
       </c>
       <c r="I48">
-        <v>994246571</v>
+        <v>3123899220</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2246,22 +2252,22 @@
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E49">
-        <v>62000</v>
+        <v>25000</v>
       </c>
       <c r="F49">
-        <v>6148627035</v>
+        <v>2548273273</v>
       </c>
       <c r="G49">
-        <v>62000</v>
+        <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I49">
-        <v>6148627035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2272,25 +2278,25 @@
         <v>44326</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E50">
-        <v>62000</v>
+        <v>5000</v>
       </c>
       <c r="F50">
-        <v>6148627035</v>
+        <v>509654655</v>
       </c>
       <c r="G50">
-        <v>62000</v>
+        <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I50">
-        <v>6148627035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2301,25 +2307,25 @@
         <v>44326</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E51">
-        <v>65000</v>
+        <v>23500</v>
       </c>
       <c r="F51">
-        <v>6628178178</v>
+        <v>2396341341</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>20500</v>
       </c>
       <c r="H51" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>2090425425.12766</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2330,25 +2336,25 @@
         <v>44326</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E52">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="F52">
-        <v>1097060170</v>
+        <v>611585586</v>
       </c>
       <c r="G52">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="H52" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I52">
-        <v>1097060170</v>
+        <v>611585586</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2356,28 +2362,28 @@
         <v>51</v>
       </c>
       <c r="B53" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="C53" t="s">
         <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E53">
-        <v>11000</v>
+        <v>100000</v>
       </c>
       <c r="F53">
-        <v>1097060170</v>
+        <v>10195095095</v>
       </c>
       <c r="G53">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I53">
-        <v>1097060170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2385,28 +2391,28 @@
         <v>52</v>
       </c>
       <c r="B54" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="C54" t="s">
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E54">
-        <v>8000</v>
+        <v>50000</v>
       </c>
       <c r="F54">
-        <v>815775776</v>
+        <v>4986637137</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>42385</v>
       </c>
       <c r="H54" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>4227172301.0349</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2414,28 +2420,28 @@
         <v>53</v>
       </c>
       <c r="B55" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="C55" t="s">
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E55">
-        <v>31500</v>
+        <v>10000</v>
       </c>
       <c r="F55">
-        <v>3123899220</v>
+        <v>997327427</v>
       </c>
       <c r="G55">
-        <v>31500</v>
+        <v>10000</v>
       </c>
       <c r="H55" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I55">
-        <v>3123899220</v>
+        <v>997327427</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2443,28 +2449,28 @@
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="C56" t="s">
         <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E56">
-        <v>31500</v>
+        <v>10000</v>
       </c>
       <c r="F56">
-        <v>3123899220</v>
+        <v>994246571</v>
       </c>
       <c r="G56">
-        <v>31500</v>
+        <v>10000</v>
       </c>
       <c r="H56" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I56">
-        <v>3123899220</v>
+        <v>994246571</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2472,28 +2478,28 @@
         <v>55</v>
       </c>
       <c r="B57" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="C57" t="s">
         <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E57">
-        <v>25000</v>
+        <v>62000</v>
       </c>
       <c r="F57">
-        <v>2548273273</v>
+        <v>6148627035</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>62000</v>
       </c>
       <c r="H57" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>6148627035</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2501,28 +2507,28 @@
         <v>56</v>
       </c>
       <c r="B58" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E58">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="F58">
-        <v>509654655</v>
+        <v>1097060170</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="H58" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1097060170</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2530,28 +2536,28 @@
         <v>57</v>
       </c>
       <c r="B59" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E59">
-        <v>23500</v>
+        <v>31500</v>
       </c>
       <c r="F59">
-        <v>2396341341</v>
+        <v>3123899220</v>
       </c>
       <c r="G59">
-        <v>20500</v>
+        <v>31500</v>
       </c>
       <c r="H59" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I59">
-        <v>2090425425.12766</v>
+        <v>3123899220</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2559,28 +2565,28 @@
         <v>58</v>
       </c>
       <c r="B60" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E60">
-        <v>6000</v>
+        <v>23500</v>
       </c>
       <c r="F60">
-        <v>611585586</v>
+        <v>2396341341</v>
       </c>
       <c r="G60">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="H60" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I60">
-        <v>611585586</v>
+        <v>203943943.9148936</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2591,25 +2597,25 @@
         <v>44327</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E61">
-        <v>100000</v>
+        <v>6000</v>
       </c>
       <c r="F61">
-        <v>10195095095</v>
+        <v>611585586</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="H61" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>611585586</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2620,25 +2626,25 @@
         <v>44327</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E62">
-        <v>50000</v>
+        <v>230000</v>
       </c>
       <c r="F62">
-        <v>4986637137</v>
+        <v>23388823173</v>
       </c>
       <c r="G62">
-        <v>42385</v>
+        <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I62">
-        <v>4227172301.0349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2649,25 +2655,25 @@
         <v>44327</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E63">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F63">
-        <v>997327427</v>
+        <v>500000000</v>
       </c>
       <c r="G63">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I63">
-        <v>997327427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2678,25 +2684,25 @@
         <v>44327</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E64">
         <v>10000</v>
       </c>
       <c r="F64">
-        <v>994246571</v>
+        <v>1000000000</v>
       </c>
       <c r="G64">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="H64" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I64">
-        <v>994246571</v>
+        <v>400000000</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2704,28 +2710,28 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="C65" t="s">
         <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E65">
-        <v>62000</v>
+        <v>50000</v>
       </c>
       <c r="F65">
-        <v>6148627035</v>
+        <v>4986637137</v>
       </c>
       <c r="G65">
-        <v>62000</v>
+        <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I65">
-        <v>6148627035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2733,28 +2739,28 @@
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="C66" t="s">
         <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E66">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="F66">
-        <v>1097060170</v>
+        <v>997327427</v>
       </c>
       <c r="G66">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I66">
-        <v>1097060170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2762,28 +2768,28 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="C67" t="s">
         <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E67">
-        <v>31500</v>
+        <v>10000</v>
       </c>
       <c r="F67">
-        <v>3123899220</v>
+        <v>994246571</v>
       </c>
       <c r="G67">
-        <v>31500</v>
+        <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I67">
-        <v>3123899220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2791,28 +2797,28 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E68">
-        <v>23500</v>
+        <v>62000</v>
       </c>
       <c r="F68">
-        <v>2396341341</v>
+        <v>6148627035</v>
       </c>
       <c r="G68">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I68">
-        <v>203943943.9148936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2820,28 +2826,28 @@
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E69">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="F69">
-        <v>611585586</v>
+        <v>1097060170</v>
       </c>
       <c r="G69">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I69">
-        <v>611585586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2849,28 +2855,28 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E70">
-        <v>230000</v>
+        <v>31500</v>
       </c>
       <c r="F70">
-        <v>23388823173</v>
+        <v>3123899220</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>17885</v>
       </c>
       <c r="H70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1773680557.133333</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2878,25 +2884,25 @@
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="C71" t="s">
         <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E71">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F71">
-        <v>500000000</v>
+        <v>1000000000</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -2907,28 +2913,28 @@
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>44327</v>
+        <v>44329</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E72">
-        <v>10000</v>
+        <v>31500</v>
       </c>
       <c r="F72">
-        <v>1000000000</v>
+        <v>3123899220</v>
       </c>
       <c r="G72">
-        <v>4000</v>
+        <v>6885</v>
       </c>
       <c r="H72" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I72">
-        <v>400000000</v>
+        <v>682795115.2285714</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2936,28 +2942,28 @@
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E73">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="F73">
-        <v>4986637137</v>
+        <v>2975142114</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="H73" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1785085268.4</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2965,25 +2971,25 @@
         <v>72</v>
       </c>
       <c r="B74" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E74">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="F74">
-        <v>997327427</v>
+        <v>2975142114</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -2994,25 +3000,25 @@
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E75">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F75">
-        <v>994246571</v>
+        <v>497423379</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -3023,25 +3029,25 @@
         <v>74</v>
       </c>
       <c r="B76" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E76">
-        <v>62000</v>
+        <v>70000</v>
       </c>
       <c r="F76">
-        <v>6148627035</v>
+        <v>6981291992</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -3052,28 +3058,28 @@
         <v>75</v>
       </c>
       <c r="B77" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E77">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="F77">
-        <v>1097060170</v>
+        <v>2286767113</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="H77" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1590794513.391304</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3081,28 +3087,28 @@
         <v>76</v>
       </c>
       <c r="B78" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E78">
-        <v>31500</v>
+        <v>23500</v>
       </c>
       <c r="F78">
-        <v>3123899220</v>
+        <v>2396341341</v>
       </c>
       <c r="G78">
-        <v>17885</v>
+        <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I78">
-        <v>1773680557.133333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3110,25 +3116,25 @@
         <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E79">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="F79">
-        <v>1000000000</v>
+        <v>611585586</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -3139,7 +3145,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="C80" t="s">
         <v>8</v>
@@ -3154,13 +3160,13 @@
         <v>3123899220</v>
       </c>
       <c r="G80">
-        <v>6885</v>
+        <v>885</v>
       </c>
       <c r="H80" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I80">
-        <v>682795115.2285714</v>
+        <v>87766692.37142858</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3168,25 +3174,25 @@
         <v>79</v>
       </c>
       <c r="B81" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="C81" t="s">
         <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E81">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="F81">
-        <v>2975142114</v>
+        <v>2286767113</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -3197,28 +3203,28 @@
         <v>80</v>
       </c>
       <c r="B82" s="2">
-        <v>44329</v>
+        <v>44333</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E82">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="F82">
-        <v>497423379</v>
+        <v>5094396647</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H82" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>3056637988.2</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3226,28 +3232,28 @@
         <v>81</v>
       </c>
       <c r="B83" s="2">
-        <v>44329</v>
+        <v>44336</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E83">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="F83">
-        <v>6981291992</v>
+        <v>5094396647</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="H83" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1018879329.4</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3255,28 +3261,28 @@
         <v>82</v>
       </c>
       <c r="B84" s="2">
-        <v>44329</v>
+        <v>44336</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E84">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="F84">
-        <v>2286767113</v>
+        <v>2038758058</v>
       </c>
       <c r="G84">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="H84" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I84">
-        <v>1590794513.391304</v>
+        <v>2038758058</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3284,28 +3290,28 @@
         <v>83</v>
       </c>
       <c r="B85" s="2">
-        <v>44329</v>
+        <v>44337</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E85">
-        <v>23000</v>
+        <v>50000</v>
       </c>
       <c r="F85">
-        <v>2286767113</v>
+        <v>5094396647</v>
       </c>
       <c r="G85">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I85">
-        <v>1590794513.391304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3313,25 +3319,25 @@
         <v>84</v>
       </c>
       <c r="B86" s="2">
-        <v>44329</v>
+        <v>44337</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E86">
-        <v>23500</v>
+        <v>20000</v>
       </c>
       <c r="F86">
-        <v>2396341341</v>
+        <v>2038758058</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -3342,28 +3348,28 @@
         <v>85</v>
       </c>
       <c r="B87" s="2">
-        <v>44329</v>
+        <v>44340</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E87">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="F87">
-        <v>611585586</v>
+        <v>1019509510</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="H87" t="s">
         <v>154</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1019509510</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3371,28 +3377,28 @@
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>44330</v>
+        <v>44340</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E88">
-        <v>31500</v>
+        <v>3000</v>
       </c>
       <c r="F88">
-        <v>3123899220</v>
+        <v>305663799</v>
       </c>
       <c r="G88">
-        <v>885</v>
+        <v>3000</v>
       </c>
       <c r="H88" t="s">
         <v>154</v>
       </c>
       <c r="I88">
-        <v>87766692.37142858</v>
+        <v>305663799</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3400,25 +3406,25 @@
         <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>44330</v>
+        <v>44341</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E89">
-        <v>23000</v>
+        <v>31500</v>
       </c>
       <c r="F89">
-        <v>2286767113</v>
+        <v>3123899220</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -3429,28 +3435,28 @@
         <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>44333</v>
+        <v>44342</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E90">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="F90">
-        <v>5094396647</v>
+        <v>1019309309</v>
       </c>
       <c r="G90">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="H90" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I90">
-        <v>3056637988.2</v>
+        <v>815447447.2</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3458,28 +3464,28 @@
         <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>44333</v>
+        <v>44342</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E91">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="F91">
-        <v>5094396647</v>
+        <v>1019309309</v>
       </c>
       <c r="G91">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I91">
-        <v>3056637988.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3487,28 +3493,28 @@
         <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>44336</v>
+        <v>44342</v>
       </c>
       <c r="C92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E92">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="F92">
-        <v>2038758058</v>
+        <v>509654655</v>
       </c>
       <c r="G92">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="H92" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I92">
-        <v>1019379029</v>
+        <v>305792793</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3516,28 +3522,28 @@
         <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>44336</v>
+        <v>44342</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E93">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="F93">
-        <v>5094396647</v>
+        <v>509654655</v>
       </c>
       <c r="G93">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I93">
-        <v>1018879329.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3545,28 +3551,28 @@
         <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>44337</v>
+        <v>44342</v>
       </c>
       <c r="C94" t="s">
         <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E94">
-        <v>50000</v>
+        <v>11000</v>
       </c>
       <c r="F94">
-        <v>5094396647</v>
+        <v>1121240240</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="H94" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1019309309.090909</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3574,28 +3580,28 @@
         <v>93</v>
       </c>
       <c r="B95" s="2">
-        <v>44340</v>
+        <v>44342</v>
       </c>
       <c r="C95" t="s">
         <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E95">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="F95">
-        <v>1019509510</v>
+        <v>1121240240</v>
       </c>
       <c r="G95">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I95">
-        <v>1019509510</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3603,28 +3609,28 @@
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>44340</v>
+        <v>44342</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
         <v>44</v>
       </c>
       <c r="E96">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="F96">
-        <v>305663799</v>
+        <v>1019509510</v>
       </c>
       <c r="G96">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I96">
-        <v>305663799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3632,25 +3638,25 @@
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E97">
-        <v>31500</v>
+        <v>3000</v>
       </c>
       <c r="F97">
-        <v>3123899220</v>
+        <v>305792793</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -3664,25 +3670,25 @@
         <v>44342</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E98">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="F98">
-        <v>1019309309</v>
+        <v>1936687688</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="H98" t="s">
         <v>154</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1936687688</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3693,10 +3699,10 @@
         <v>44342</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E99">
         <v>5000</v>
@@ -3705,13 +3711,13 @@
         <v>509654655</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="H99" t="s">
         <v>154</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>509654655</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3722,25 +3728,25 @@
         <v>44342</v>
       </c>
       <c r="C100" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E100">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="F100">
-        <v>1121240240</v>
+        <v>509654655</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="H100" t="s">
         <v>154</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>509654655</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3748,28 +3754,28 @@
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>44342</v>
+        <v>44344</v>
       </c>
       <c r="C101" t="s">
         <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E101">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="F101">
-        <v>1019509510</v>
+        <v>1100000000</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="H101" t="s">
         <v>154</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1100000000</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3777,28 +3783,28 @@
         <v>100</v>
       </c>
       <c r="B102" s="2">
-        <v>44342</v>
+        <v>44347</v>
       </c>
       <c r="C102" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D102" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E102">
-        <v>3000</v>
+        <v>45000</v>
       </c>
       <c r="F102">
-        <v>305792793</v>
+        <v>4584956982</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="H102" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1120767262.266667</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3806,28 +3812,28 @@
         <v>101</v>
       </c>
       <c r="B103" s="2">
-        <v>44342</v>
+        <v>44347</v>
       </c>
       <c r="C103" t="s">
         <v>12</v>
       </c>
       <c r="D103" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E103">
-        <v>19000</v>
+        <v>45000</v>
       </c>
       <c r="F103">
-        <v>1936687688</v>
+        <v>4584956982</v>
       </c>
       <c r="G103">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="H103" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I103">
-        <v>1936687688</v>
+        <v>1018879329.333333</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3835,7 +3841,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="2">
-        <v>44342</v>
+        <v>44347</v>
       </c>
       <c r="C104" t="s">
         <v>12</v>
@@ -3844,19 +3850,19 @@
         <v>50</v>
       </c>
       <c r="E104">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="F104">
-        <v>509654655</v>
+        <v>1936687688</v>
       </c>
       <c r="G104">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I104">
-        <v>509654655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3864,7 +3870,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="2">
-        <v>44342</v>
+        <v>44347</v>
       </c>
       <c r="C105" t="s">
         <v>12</v>
@@ -3879,13 +3885,13 @@
         <v>509654655</v>
       </c>
       <c r="G105">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I105">
-        <v>509654655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3893,28 +3899,28 @@
         <v>104</v>
       </c>
       <c r="B106" s="2">
-        <v>44344</v>
+        <v>44347</v>
       </c>
       <c r="C106" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D106" t="s">
         <v>52</v>
       </c>
       <c r="E106">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="F106">
-        <v>1100000000</v>
+        <v>509654655</v>
       </c>
       <c r="G106">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I106">
-        <v>1100000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3925,25 +3931,25 @@
         <v>44347</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D107" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E107">
-        <v>45000</v>
+        <v>3000</v>
       </c>
       <c r="F107">
-        <v>4584956982</v>
+        <v>305663799</v>
       </c>
       <c r="G107">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I107">
-        <v>1018879329.333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3954,25 +3960,25 @@
         <v>44347</v>
       </c>
       <c r="C108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D108" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E108">
-        <v>45000</v>
+        <v>7700</v>
       </c>
       <c r="F108">
-        <v>4584956982</v>
+        <v>784537084</v>
       </c>
       <c r="G108">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I108">
-        <v>1018879329.333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3983,25 +3989,25 @@
         <v>44347</v>
       </c>
       <c r="C109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D109" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E109">
-        <v>19000</v>
+        <v>21300</v>
       </c>
       <c r="F109">
-        <v>1936687688</v>
+        <v>2170212972</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="H109" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1222655195.492958</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4012,22 +4018,22 @@
         <v>44347</v>
       </c>
       <c r="C110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D110" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E110">
-        <v>5000</v>
+        <v>21300</v>
       </c>
       <c r="F110">
-        <v>509654655</v>
+        <v>2170212972</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -4041,25 +4047,25 @@
         <v>44347</v>
       </c>
       <c r="C111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D111" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E111">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="F111">
-        <v>509654655</v>
+        <v>4970964345</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="H111" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>1193031442.8</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4073,19 +4079,19 @@
         <v>11</v>
       </c>
       <c r="D112" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E112">
-        <v>3000</v>
+        <v>50000</v>
       </c>
       <c r="F112">
-        <v>305663799</v>
+        <v>4970964345</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -4102,22 +4108,22 @@
         <v>11</v>
       </c>
       <c r="D113" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E113">
-        <v>7700</v>
+        <v>30000</v>
       </c>
       <c r="F113">
-        <v>784537084</v>
+        <v>3056637988</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>28000</v>
       </c>
       <c r="H113" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>2852862122.133333</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4131,19 +4137,19 @@
         <v>11</v>
       </c>
       <c r="D114" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E114">
-        <v>21300</v>
+        <v>30000</v>
       </c>
       <c r="F114">
-        <v>2170212972</v>
+        <v>3056637988</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -4154,28 +4160,28 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <v>44347</v>
+        <v>44348</v>
       </c>
       <c r="C115" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D115" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E115">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="F115">
-        <v>4970964345</v>
+        <v>1019598248</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="H115" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>611758948.8</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4183,28 +4189,28 @@
         <v>114</v>
       </c>
       <c r="B116" s="2">
-        <v>44347</v>
+        <v>44348</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D116" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E116">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="F116">
-        <v>3056637988</v>
+        <v>1019598248</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="H116" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>509799124</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4215,25 +4221,25 @@
         <v>44348</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E117">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F117">
-        <v>1019598248</v>
+        <v>510340340</v>
       </c>
       <c r="G117">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I117">
-        <v>509799124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4244,25 +4250,25 @@
         <v>44348</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D118" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E118">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="F118">
-        <v>1019598248</v>
+        <v>297955051</v>
       </c>
       <c r="G118">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I118">
-        <v>509799124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4273,22 +4279,22 @@
         <v>44348</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E119">
-        <v>5000</v>
+        <v>45000</v>
       </c>
       <c r="F119">
-        <v>510340340</v>
+        <v>4584956982</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -4305,22 +4311,22 @@
         <v>12</v>
       </c>
       <c r="D120" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E120">
-        <v>3000</v>
+        <v>22000</v>
       </c>
       <c r="F120">
-        <v>297955051</v>
+        <v>2185003707</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="H120" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1986367006.363636</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4334,19 +4340,19 @@
         <v>12</v>
       </c>
       <c r="D121" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E121">
-        <v>45000</v>
+        <v>22000</v>
       </c>
       <c r="F121">
-        <v>4584956982</v>
+        <v>2185003707</v>
       </c>
       <c r="G121">
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -4363,22 +4369,22 @@
         <v>12</v>
       </c>
       <c r="D122" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E122">
-        <v>22000</v>
+        <v>50000</v>
       </c>
       <c r="F122">
-        <v>2185003707</v>
+        <v>4965917519</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>45000</v>
       </c>
       <c r="H122" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>4469325767.1</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4392,7 +4398,7 @@
         <v>12</v>
       </c>
       <c r="D123" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E123">
         <v>50000</v>
@@ -4404,7 +4410,7 @@
         <v>9000</v>
       </c>
       <c r="H123" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I123">
         <v>893865153.42</v>
@@ -4421,22 +4427,22 @@
         <v>12</v>
       </c>
       <c r="D124" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E124">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="F124">
-        <v>4965917519</v>
+        <v>1020680681</v>
       </c>
       <c r="G124">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="H124" t="s">
         <v>154</v>
       </c>
       <c r="I124">
-        <v>893865153.42</v>
+        <v>1020680681</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4450,22 +4456,22 @@
         <v>12</v>
       </c>
       <c r="D125" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E125">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="F125">
-        <v>1020680681</v>
+        <v>1291138554</v>
       </c>
       <c r="G125">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="H125" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I125">
-        <v>1020680681</v>
+        <v>1291138554</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4476,25 +4482,25 @@
         <v>44348</v>
       </c>
       <c r="C126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D126" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E126">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="F126">
-        <v>1020680681</v>
+        <v>5103403403</v>
       </c>
       <c r="G126">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="H126" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I126">
-        <v>1020680681</v>
+        <v>4082722722.4</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4505,25 +4511,25 @@
         <v>44348</v>
       </c>
       <c r="C127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D127" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E127">
-        <v>13000</v>
+        <v>50000</v>
       </c>
       <c r="F127">
-        <v>1291138554</v>
+        <v>5103403403</v>
       </c>
       <c r="G127">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I127">
-        <v>1291138554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4534,25 +4540,25 @@
         <v>44348</v>
       </c>
       <c r="C128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D128" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E128">
-        <v>13000</v>
+        <v>45000</v>
       </c>
       <c r="F128">
-        <v>1291138554</v>
+        <v>4593063063</v>
       </c>
       <c r="G128">
-        <v>13000</v>
+        <v>38000</v>
       </c>
       <c r="H128" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I128">
-        <v>1291138554</v>
+        <v>3878586586.533333</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4566,19 +4572,19 @@
         <v>11</v>
       </c>
       <c r="D129" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E129">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="F129">
-        <v>5103403403</v>
+        <v>4593063063</v>
       </c>
       <c r="G129">
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -4595,22 +4601,22 @@
         <v>11</v>
       </c>
       <c r="D130" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E130">
-        <v>45000</v>
+        <v>5000</v>
       </c>
       <c r="F130">
-        <v>4593063063</v>
+        <v>510340477</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="H130" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>408272381.6</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4624,7 +4630,7 @@
         <v>11</v>
       </c>
       <c r="D131" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E131">
         <v>5000</v>
@@ -4636,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -4653,7 +4659,7 @@
         <v>11</v>
       </c>
       <c r="D132" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E132">
         <v>38000</v>
@@ -4662,13 +4668,13 @@
         <v>3774097314</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>32000</v>
       </c>
       <c r="H132" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>3178187211.789474</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4685,16 +4691,16 @@
         <v>69</v>
       </c>
       <c r="E133">
-        <v>10000</v>
+        <v>38000</v>
       </c>
       <c r="F133">
-        <v>1018879329</v>
+        <v>3774097314</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -4714,19 +4720,19 @@
         <v>70</v>
       </c>
       <c r="E134">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="F134">
-        <v>1195292534</v>
+        <v>1018879329</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="H134" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>815103463.2</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4740,22 +4746,22 @@
         <v>11</v>
       </c>
       <c r="D135" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E135">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="F135">
-        <v>4482347001</v>
+        <v>1018879329</v>
       </c>
       <c r="G135">
-        <v>19000</v>
+        <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I135">
-        <v>1892546511.533333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4772,19 +4778,19 @@
         <v>71</v>
       </c>
       <c r="E136">
-        <v>45000</v>
+        <v>12000</v>
       </c>
       <c r="F136">
-        <v>4482347001</v>
+        <v>1195292534</v>
       </c>
       <c r="G136">
-        <v>19000</v>
+        <v>0</v>
       </c>
       <c r="H136" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I136">
-        <v>1892546511.533333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4801,19 +4807,19 @@
         <v>72</v>
       </c>
       <c r="E137">
-        <v>11000</v>
+        <v>45000</v>
       </c>
       <c r="F137">
-        <v>1122748749</v>
+        <v>4482347001</v>
       </c>
       <c r="G137">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="H137" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I137">
-        <v>1122748749</v>
+        <v>2490192778.333333</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4830,19 +4836,19 @@
         <v>72</v>
       </c>
       <c r="E138">
-        <v>11000</v>
+        <v>45000</v>
       </c>
       <c r="F138">
-        <v>1122748749</v>
+        <v>4482347001</v>
       </c>
       <c r="G138">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="H138" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I138">
-        <v>1122748749</v>
+        <v>1892546511.533333</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4850,28 +4856,28 @@
         <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D139" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E139">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="F139">
-        <v>1019598248</v>
+        <v>1122748749</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="H139" t="s">
         <v>154</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1122748749</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4882,22 +4888,22 @@
         <v>44349</v>
       </c>
       <c r="C140" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D140" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E140">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="F140">
-        <v>4965917519</v>
+        <v>1019598248</v>
       </c>
       <c r="G140">
         <v>0</v>
       </c>
       <c r="H140" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -4917,19 +4923,19 @@
         <v>63</v>
       </c>
       <c r="E141">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="F141">
-        <v>1020680681</v>
+        <v>4965917519</v>
       </c>
       <c r="G141">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I141">
-        <v>510340340.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4946,19 +4952,19 @@
         <v>64</v>
       </c>
       <c r="E142">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="F142">
-        <v>1291138554</v>
+        <v>1020680681</v>
       </c>
       <c r="G142">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="H142" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I142">
-        <v>1291138554</v>
+        <v>510340340.5</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4969,25 +4975,25 @@
         <v>44349</v>
       </c>
       <c r="C143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D143" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E143">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="F143">
-        <v>509439665</v>
+        <v>1291138554</v>
       </c>
       <c r="G143">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="H143" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I143">
-        <v>509439665</v>
+        <v>1291138554</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5001,7 +5007,7 @@
         <v>11</v>
       </c>
       <c r="D144" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E144">
         <v>5000</v>
@@ -5030,7 +5036,7 @@
         <v>11</v>
       </c>
       <c r="D145" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E145">
         <v>45000</v>
@@ -5042,7 +5048,7 @@
         <v>9000</v>
       </c>
       <c r="H145" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I145">
         <v>896469400.2</v>
@@ -5059,7 +5065,7 @@
         <v>11</v>
       </c>
       <c r="D146" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E146">
         <v>11000</v>
@@ -5071,7 +5077,7 @@
         <v>11000</v>
       </c>
       <c r="H146" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I146">
         <v>1122748749</v>
@@ -5088,7 +5094,7 @@
         <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E147">
         <v>11000</v>
@@ -5100,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="H147" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -5117,7 +5123,7 @@
         <v>12</v>
       </c>
       <c r="D148" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E148">
         <v>10000</v>
@@ -5129,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -5146,7 +5152,7 @@
         <v>12</v>
       </c>
       <c r="D149" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E149">
         <v>13000</v>
@@ -5158,7 +5164,7 @@
         <v>11000</v>
       </c>
       <c r="H149" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I149">
         <v>1092501853.384615</v>
@@ -5175,7 +5181,7 @@
         <v>11</v>
       </c>
       <c r="D150" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E150">
         <v>5000</v>
@@ -5187,7 +5193,7 @@
         <v>5000</v>
       </c>
       <c r="H150" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I150">
         <v>509439665</v>
@@ -5204,7 +5210,7 @@
         <v>11</v>
       </c>
       <c r="D151" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E151">
         <v>45000</v>
@@ -5216,7 +5222,7 @@
         <v>5000</v>
       </c>
       <c r="H151" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I151">
         <v>498038555.6666666</v>
@@ -5233,7 +5239,7 @@
         <v>11</v>
       </c>
       <c r="D152" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E152">
         <v>11000</v>
@@ -5245,7 +5251,7 @@
         <v>11000</v>
       </c>
       <c r="H152" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I152">
         <v>1122748749</v>
@@ -5262,7 +5268,7 @@
         <v>8</v>
       </c>
       <c r="D153" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E153">
         <v>12000</v>
@@ -5271,13 +5277,13 @@
         <v>1225333333</v>
       </c>
       <c r="G153">
-        <v>0</v>
+        <v>11800</v>
       </c>
       <c r="H153" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1204911110.783333</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5288,22 +5294,22 @@
         <v>44354</v>
       </c>
       <c r="C154" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D154" t="s">
         <v>75</v>
       </c>
       <c r="E154">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="F154">
-        <v>2042222222</v>
+        <v>1225333333</v>
       </c>
       <c r="G154">
         <v>0</v>
       </c>
       <c r="H154" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -5320,19 +5326,19 @@
         <v>11</v>
       </c>
       <c r="D155" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E155">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="F155">
-        <v>509439665</v>
+        <v>2042222222</v>
       </c>
       <c r="G155">
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -5349,22 +5355,22 @@
         <v>11</v>
       </c>
       <c r="D156" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E156">
-        <v>42000</v>
+        <v>5000</v>
       </c>
       <c r="F156">
-        <v>4288666667</v>
+        <v>509439665</v>
       </c>
       <c r="G156">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="H156" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I156">
-        <v>2042222222.380952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5378,7 +5384,7 @@
         <v>11</v>
       </c>
       <c r="D157" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E157">
         <v>42000</v>
@@ -5390,7 +5396,7 @@
         <v>20000</v>
       </c>
       <c r="H157" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I157">
         <v>2042222222.380952</v>
@@ -5407,7 +5413,7 @@
         <v>11</v>
       </c>
       <c r="D158" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E158">
         <v>20000</v>
@@ -5419,7 +5425,7 @@
         <v>20000</v>
       </c>
       <c r="H158" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I158">
         <v>2042222222</v>
@@ -5436,22 +5442,22 @@
         <v>11</v>
       </c>
       <c r="D159" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E159">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="F159">
-        <v>2042222222</v>
+        <v>4482347001</v>
       </c>
       <c r="G159">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I159">
-        <v>2042222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5465,19 +5471,19 @@
         <v>11</v>
       </c>
       <c r="D160" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E160">
-        <v>45000</v>
+        <v>11000</v>
       </c>
       <c r="F160">
-        <v>4482347001</v>
+        <v>1122748749</v>
       </c>
       <c r="G160">
         <v>0</v>
       </c>
       <c r="H160" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -5488,25 +5494,25 @@
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="C161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D161" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E161">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="F161">
-        <v>1122748749</v>
+        <v>1291138554</v>
       </c>
       <c r="G161">
         <v>0</v>
       </c>
       <c r="H161" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -5520,25 +5526,25 @@
         <v>44355</v>
       </c>
       <c r="C162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D162" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E162">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="F162">
-        <v>1291138554</v>
+        <v>1428952953</v>
       </c>
       <c r="G162">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="H162" t="s">
         <v>154</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>1428952953</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -5552,22 +5558,22 @@
         <v>11</v>
       </c>
       <c r="D163" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E163">
-        <v>14000</v>
+        <v>42000</v>
       </c>
       <c r="F163">
-        <v>1428952953</v>
+        <v>4288666667</v>
       </c>
       <c r="G163">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="H163" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I163">
-        <v>1428952953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5584,19 +5590,19 @@
         <v>78</v>
       </c>
       <c r="E164">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="F164">
-        <v>1428952953</v>
+        <v>2042222222</v>
       </c>
       <c r="G164">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="H164" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I164">
-        <v>1428952953</v>
+        <v>612666666.6</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5604,25 +5610,25 @@
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="C165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D165" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E165">
-        <v>42000</v>
+        <v>22000</v>
       </c>
       <c r="F165">
-        <v>4288666667</v>
+        <v>2245497497</v>
       </c>
       <c r="G165">
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -5633,28 +5639,28 @@
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>44355</v>
+        <v>44357</v>
       </c>
       <c r="C166" t="s">
         <v>11</v>
       </c>
       <c r="D166" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E166">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="F166">
-        <v>2042222222</v>
+        <v>1428952953</v>
       </c>
       <c r="G166">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="H166" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I166">
-        <v>612666666.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5662,25 +5668,25 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="C167" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D167" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E167">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="F167">
-        <v>2245497497</v>
+        <v>2042222222</v>
       </c>
       <c r="G167">
         <v>0</v>
       </c>
       <c r="H167" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -5691,28 +5697,28 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>44357</v>
+        <v>44365</v>
       </c>
       <c r="C168" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D168" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E168">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="F168">
-        <v>1428952953</v>
+        <v>2041361910</v>
       </c>
       <c r="G168">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H168" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>204136191</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5720,25 +5726,25 @@
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>44357</v>
+        <v>44365</v>
       </c>
       <c r="C169" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D169" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E169">
         <v>20000</v>
       </c>
       <c r="F169">
-        <v>2042222222</v>
+        <v>2041361910</v>
       </c>
       <c r="G169">
         <v>0</v>
       </c>
       <c r="H169" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -5749,28 +5755,28 @@
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>44365</v>
+        <v>44369</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D170" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E170">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="F170">
-        <v>2041361910</v>
+        <v>2449634292</v>
       </c>
       <c r="G170">
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="H170" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>1939293814.5</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -5784,7 +5790,7 @@
         <v>11</v>
       </c>
       <c r="D171" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E171">
         <v>24000</v>
@@ -5796,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -5813,7 +5819,7 @@
         <v>8</v>
       </c>
       <c r="D172" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E172">
         <v>25000</v>
@@ -5825,7 +5831,7 @@
         <v>5000</v>
       </c>
       <c r="H172" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I172">
         <v>509074002.2</v>
@@ -5839,25 +5845,25 @@
         <v>44396</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D173" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E173">
-        <v>25000</v>
+        <v>16500</v>
       </c>
       <c r="F173">
-        <v>2545370011</v>
+        <v>1681299930</v>
       </c>
       <c r="G173">
-        <v>5000</v>
+        <v>13500</v>
       </c>
       <c r="H173" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I173">
-        <v>509074002.2</v>
+        <v>1375609033.636364</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -5871,7 +5877,7 @@
         <v>13</v>
       </c>
       <c r="D174" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E174">
         <v>16500</v>
@@ -5883,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -5900,7 +5906,7 @@
         <v>13</v>
       </c>
       <c r="D175" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E175">
         <v>5000</v>
@@ -5909,13 +5915,13 @@
         <v>509484827</v>
       </c>
       <c r="G175">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="H175" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>458536344.3</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -5932,19 +5938,19 @@
         <v>85</v>
       </c>
       <c r="E176">
-        <v>240000</v>
+        <v>5000</v>
       </c>
       <c r="F176">
-        <v>23931716154</v>
+        <v>509484827</v>
       </c>
       <c r="G176">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="H176" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I176">
-        <v>269231806.7325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -5958,7 +5964,7 @@
         <v>13</v>
       </c>
       <c r="D177" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E177">
         <v>240000</v>
@@ -5967,13 +5973,13 @@
         <v>23931716154</v>
       </c>
       <c r="G177">
-        <v>2700</v>
+        <v>232500</v>
       </c>
       <c r="H177" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I177">
-        <v>269231806.7325</v>
+        <v>23183850024.1875</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -5990,19 +5996,19 @@
         <v>86</v>
       </c>
       <c r="E178">
-        <v>5000</v>
+        <v>240000</v>
       </c>
       <c r="F178">
-        <v>498577419</v>
+        <v>23931716154</v>
       </c>
       <c r="G178">
-        <v>5000</v>
+        <v>2700</v>
       </c>
       <c r="H178" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I178">
-        <v>498577419</v>
+        <v>269231806.7325</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -6016,7 +6022,7 @@
         <v>13</v>
       </c>
       <c r="D179" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E179">
         <v>5000</v>
@@ -6045,7 +6051,7 @@
         <v>8</v>
       </c>
       <c r="D180" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E180">
         <v>25000</v>
@@ -6057,7 +6063,7 @@
         <v>71</v>
       </c>
       <c r="H180" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I180">
         <v>7228850.83124</v>
@@ -6074,7 +6080,7 @@
         <v>13</v>
       </c>
       <c r="D181" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E181">
         <v>10000</v>
@@ -6086,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="H181" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -6103,7 +6109,7 @@
         <v>13</v>
       </c>
       <c r="D182" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E182">
         <v>6000</v>
@@ -6115,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="H182" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -6132,7 +6138,7 @@
         <v>13</v>
       </c>
       <c r="D183" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E183">
         <v>5000</v>
@@ -6144,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="H183" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -6161,7 +6167,7 @@
         <v>13</v>
       </c>
       <c r="D184" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E184">
         <v>62000</v>
@@ -6173,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="H184" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -6190,7 +6196,7 @@
         <v>13</v>
       </c>
       <c r="D185" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E185">
         <v>29470</v>
@@ -6202,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="H185" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I185">
         <v>0</v>
@@ -6219,7 +6225,7 @@
         <v>13</v>
       </c>
       <c r="D186" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E186">
         <v>240000</v>
@@ -6231,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="H186" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I186">
         <v>0</v>
@@ -6248,7 +6254,7 @@
         <v>13</v>
       </c>
       <c r="D187" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E187">
         <v>5000</v>
@@ -6260,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -6277,7 +6283,7 @@
         <v>13</v>
       </c>
       <c r="D188" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E188">
         <v>1000</v>
@@ -6289,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -6306,7 +6312,7 @@
         <v>13</v>
       </c>
       <c r="D189" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E189">
         <v>3000</v>
@@ -6318,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -6335,7 +6341,7 @@
         <v>13</v>
       </c>
       <c r="D190" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E190">
         <v>20000</v>
@@ -6347,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="H190" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I190">
         <v>0</v>
@@ -6364,7 +6370,7 @@
         <v>13</v>
       </c>
       <c r="D191" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E191">
         <v>5000</v>
@@ -6376,7 +6382,7 @@
         <v>0</v>
       </c>
       <c r="H191" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I191">
         <v>0</v>
@@ -6393,7 +6399,7 @@
         <v>13</v>
       </c>
       <c r="D192" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E192">
         <v>5000</v>
@@ -6402,13 +6408,13 @@
         <v>498577419</v>
       </c>
       <c r="G192">
-        <v>0</v>
+        <v>4170</v>
       </c>
       <c r="H192" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>415813567.446</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -6425,19 +6431,19 @@
         <v>97</v>
       </c>
       <c r="E193">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F193">
-        <v>997154840</v>
+        <v>498577419</v>
       </c>
       <c r="G193">
-        <v>6170</v>
+        <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I193">
-        <v>615244536.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -6451,7 +6457,7 @@
         <v>13</v>
       </c>
       <c r="D194" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E194">
         <v>10000</v>
@@ -6463,7 +6469,7 @@
         <v>6170</v>
       </c>
       <c r="H194" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I194">
         <v>615244536.28</v>
@@ -6480,7 +6486,7 @@
         <v>8</v>
       </c>
       <c r="D195" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E195">
         <v>25000</v>
@@ -6492,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="H195" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -6509,7 +6515,7 @@
         <v>8</v>
       </c>
       <c r="D196" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E196">
         <v>10000</v>
@@ -6521,7 +6527,7 @@
         <v>71</v>
       </c>
       <c r="H196" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I196">
         <v>7230311.1919</v>
@@ -6535,25 +6541,25 @@
         <v>44399</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D197" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E197">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F197">
-        <v>1018353689</v>
+        <v>498819912</v>
       </c>
       <c r="G197">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I197">
-        <v>7230311.1919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -6567,19 +6573,19 @@
         <v>13</v>
       </c>
       <c r="D198" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E198">
-        <v>5000</v>
+        <v>7600</v>
       </c>
       <c r="F198">
-        <v>498819912</v>
+        <v>758386948</v>
       </c>
       <c r="G198">
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I198">
         <v>0</v>
@@ -6596,19 +6602,19 @@
         <v>13</v>
       </c>
       <c r="D199" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E199">
-        <v>7600</v>
+        <v>10000</v>
       </c>
       <c r="F199">
-        <v>758386948</v>
+        <v>997877563</v>
       </c>
       <c r="G199">
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I199">
         <v>0</v>
@@ -6625,19 +6631,19 @@
         <v>13</v>
       </c>
       <c r="D200" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E200">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="F200">
-        <v>997877563</v>
+        <v>698347877</v>
       </c>
       <c r="G200">
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I200">
         <v>0</v>
@@ -6654,7 +6660,7 @@
         <v>13</v>
       </c>
       <c r="D201" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E201">
         <v>7000</v>
@@ -6666,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I201">
         <v>0</v>
@@ -6683,22 +6689,22 @@
         <v>13</v>
       </c>
       <c r="D202" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E202">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="F202">
-        <v>698347877</v>
+        <v>498819912</v>
       </c>
       <c r="G202">
-        <v>0</v>
+        <v>4770</v>
       </c>
       <c r="H202" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>475874196.048</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -6712,7 +6718,7 @@
         <v>13</v>
       </c>
       <c r="D203" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E203">
         <v>5000</v>
@@ -6724,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="H203" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I203">
         <v>0</v>
@@ -6741,7 +6747,7 @@
         <v>13</v>
       </c>
       <c r="D204" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E204">
         <v>9000</v>
@@ -6753,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I204">
         <v>0</v>
@@ -6770,7 +6776,7 @@
         <v>13</v>
       </c>
       <c r="D205" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E205">
         <v>7000</v>
@@ -6782,7 +6788,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I205">
         <v>0</v>
@@ -6799,7 +6805,7 @@
         <v>13</v>
       </c>
       <c r="D206" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E206">
         <v>5000</v>
@@ -6811,7 +6817,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I206">
         <v>0</v>
@@ -6828,7 +6834,7 @@
         <v>13</v>
       </c>
       <c r="D207" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E207">
         <v>10000</v>
@@ -6840,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I207">
         <v>0</v>
@@ -6857,7 +6863,7 @@
         <v>13</v>
       </c>
       <c r="D208" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E208">
         <v>36000</v>
@@ -6866,13 +6872,13 @@
         <v>3595816883</v>
       </c>
       <c r="G208">
-        <v>16770</v>
+        <v>26770</v>
       </c>
       <c r="H208" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I208">
-        <v>1675051364.664167</v>
+        <v>2673889387.719722</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -6886,7 +6892,7 @@
         <v>13</v>
       </c>
       <c r="D209" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E209">
         <v>36000</v>
@@ -6898,7 +6904,7 @@
         <v>16770</v>
       </c>
       <c r="H209" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I209">
         <v>1675051364.664167</v>
@@ -6915,7 +6921,7 @@
         <v>13</v>
       </c>
       <c r="D210" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E210">
         <v>10000</v>
@@ -6927,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I210">
         <v>0</v>
@@ -6944,7 +6950,7 @@
         <v>13</v>
       </c>
       <c r="D211" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E211">
         <v>5000</v>
@@ -6956,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I211">
         <v>0</v>
@@ -6973,7 +6979,7 @@
         <v>13</v>
       </c>
       <c r="D212" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E212">
         <v>14000</v>
@@ -6982,13 +6988,13 @@
         <v>1397028588</v>
       </c>
       <c r="G212">
-        <v>0</v>
+        <v>1270</v>
       </c>
       <c r="H212" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>126730450.4828572</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -7005,19 +7011,19 @@
         <v>112</v>
       </c>
       <c r="E213">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="F213">
-        <v>997877563</v>
+        <v>1397028588</v>
       </c>
       <c r="G213">
-        <v>1270</v>
+        <v>0</v>
       </c>
       <c r="H213" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I213">
-        <v>126730450.501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -7031,7 +7037,7 @@
         <v>13</v>
       </c>
       <c r="D214" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E214">
         <v>10000</v>
@@ -7043,7 +7049,7 @@
         <v>1270</v>
       </c>
       <c r="H214" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I214">
         <v>126730450.501</v>
@@ -7060,7 +7066,7 @@
         <v>13</v>
       </c>
       <c r="D215" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E215">
         <v>36000</v>
@@ -7072,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I215">
         <v>0</v>
@@ -7089,7 +7095,7 @@
         <v>8</v>
       </c>
       <c r="D216" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E216">
         <v>50000</v>
@@ -7098,13 +7104,13 @@
         <v>5197389169</v>
       </c>
       <c r="G216">
-        <v>5071</v>
+        <v>39071</v>
       </c>
       <c r="H216" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I216">
-        <v>527119209.51998</v>
+        <v>4061343844.43998</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -7118,7 +7124,7 @@
         <v>8</v>
       </c>
       <c r="D217" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E217">
         <v>50000</v>
@@ -7130,7 +7136,7 @@
         <v>5071</v>
       </c>
       <c r="H217" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I217">
         <v>527119209.51998</v>
@@ -7147,7 +7153,7 @@
         <v>8</v>
       </c>
       <c r="D218" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E218">
         <v>10000</v>
@@ -7159,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I218">
         <v>0</v>
@@ -7176,7 +7182,7 @@
         <v>13</v>
       </c>
       <c r="D219" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E219">
         <v>29700</v>
@@ -7188,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I219">
         <v>0</v>
@@ -7205,7 +7211,7 @@
         <v>13</v>
       </c>
       <c r="D220" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E220">
         <v>13000</v>
@@ -7217,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I220">
         <v>0</v>
@@ -7234,7 +7240,7 @@
         <v>13</v>
       </c>
       <c r="D221" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E221">
         <v>16000</v>
@@ -7246,7 +7252,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I221">
         <v>0</v>
@@ -7263,7 +7269,7 @@
         <v>13</v>
       </c>
       <c r="D222" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E222">
         <v>6200</v>
@@ -7272,13 +7278,13 @@
         <v>619132177</v>
       </c>
       <c r="G222">
-        <v>0</v>
+        <v>4206</v>
       </c>
       <c r="H222" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>420011280.0745161</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -7295,16 +7301,16 @@
         <v>118</v>
       </c>
       <c r="E223">
-        <v>26800</v>
+        <v>6200</v>
       </c>
       <c r="F223">
-        <v>2676248765</v>
+        <v>619132177</v>
       </c>
       <c r="G223">
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I223">
         <v>0</v>
@@ -7321,22 +7327,22 @@
         <v>13</v>
       </c>
       <c r="D224" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E224">
-        <v>10000</v>
+        <v>26800</v>
       </c>
       <c r="F224">
-        <v>997877563</v>
+        <v>2676248765</v>
       </c>
       <c r="G224">
-        <v>0</v>
+        <v>26006</v>
       </c>
       <c r="H224" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>2596959902.335448</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -7353,16 +7359,16 @@
         <v>119</v>
       </c>
       <c r="E225">
-        <v>25000</v>
+        <v>26800</v>
       </c>
       <c r="F225">
-        <v>2496500713</v>
+        <v>2676248765</v>
       </c>
       <c r="G225">
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I225">
         <v>0</v>
@@ -7379,19 +7385,19 @@
         <v>13</v>
       </c>
       <c r="D226" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E226">
         <v>10000</v>
       </c>
       <c r="F226">
-        <v>998600285</v>
+        <v>997877563</v>
       </c>
       <c r="G226">
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I226">
         <v>0</v>
@@ -7408,19 +7414,19 @@
         <v>13</v>
       </c>
       <c r="D227" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E227">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="F227">
-        <v>1098460313</v>
+        <v>2496500713</v>
       </c>
       <c r="G227">
         <v>0</v>
       </c>
       <c r="H227" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I227">
         <v>0</v>
@@ -7437,19 +7443,19 @@
         <v>13</v>
       </c>
       <c r="D228" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E228">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F228">
-        <v>499300142</v>
+        <v>998600285</v>
       </c>
       <c r="G228">
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I228">
         <v>0</v>
@@ -7466,19 +7472,19 @@
         <v>13</v>
       </c>
       <c r="D229" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E229">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="F229">
-        <v>998600285</v>
+        <v>1098460313</v>
       </c>
       <c r="G229">
         <v>0</v>
       </c>
       <c r="H229" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I229">
         <v>0</v>
@@ -7495,7 +7501,7 @@
         <v>13</v>
       </c>
       <c r="D230" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E230">
         <v>5000</v>
@@ -7507,7 +7513,7 @@
         <v>0</v>
       </c>
       <c r="H230" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I230">
         <v>0</v>
@@ -7524,22 +7530,22 @@
         <v>13</v>
       </c>
       <c r="D231" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E231">
-        <v>80000</v>
+        <v>10000</v>
       </c>
       <c r="F231">
-        <v>7988802281</v>
+        <v>998600285</v>
       </c>
       <c r="G231">
-        <v>59006</v>
+        <v>0</v>
       </c>
       <c r="H231" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I231">
-        <v>5892340842.408575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -7556,19 +7562,19 @@
         <v>125</v>
       </c>
       <c r="E232">
-        <v>80000</v>
+        <v>5000</v>
       </c>
       <c r="F232">
-        <v>7988802281</v>
+        <v>499300142</v>
       </c>
       <c r="G232">
-        <v>59006</v>
+        <v>0</v>
       </c>
       <c r="H232" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I232">
-        <v>5892340842.408575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -7585,19 +7591,19 @@
         <v>126</v>
       </c>
       <c r="E233">
-        <v>10000</v>
+        <v>80000</v>
       </c>
       <c r="F233">
-        <v>998600285</v>
+        <v>7988802281</v>
       </c>
       <c r="G233">
-        <v>10000</v>
+        <v>72006</v>
       </c>
       <c r="H233" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I233">
-        <v>998600285</v>
+        <v>7190521213.071074</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -7614,19 +7620,19 @@
         <v>126</v>
       </c>
       <c r="E234">
-        <v>10000</v>
+        <v>80000</v>
       </c>
       <c r="F234">
-        <v>998600285</v>
+        <v>7988802281</v>
       </c>
       <c r="G234">
-        <v>10000</v>
+        <v>59006</v>
       </c>
       <c r="H234" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I234">
-        <v>998600285</v>
+        <v>5892340842.408575</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -7634,28 +7640,28 @@
         <v>233</v>
       </c>
       <c r="B235" s="2">
-        <v>44404</v>
+        <v>44403</v>
       </c>
       <c r="C235" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D235" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E235">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="F235">
-        <v>5197389169</v>
+        <v>998600285</v>
       </c>
       <c r="G235">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="H235" t="s">
         <v>154</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>998600285</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -7669,22 +7675,22 @@
         <v>8</v>
       </c>
       <c r="D236" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E236">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="F236">
-        <v>3122132132</v>
+        <v>5197389169</v>
       </c>
       <c r="G236">
-        <v>7601</v>
+        <v>0</v>
       </c>
       <c r="H236" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I236">
-        <v>791044211.1777334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -7698,7 +7704,7 @@
         <v>8</v>
       </c>
       <c r="D237" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E237">
         <v>30000</v>
@@ -7707,13 +7713,13 @@
         <v>3122132132</v>
       </c>
       <c r="G237">
-        <v>7601</v>
+        <v>28571</v>
       </c>
       <c r="H237" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I237">
-        <v>791044211.1777334</v>
+        <v>2973414571.445734</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -7724,25 +7730,25 @@
         <v>44404</v>
       </c>
       <c r="C238" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D238" t="s">
         <v>128</v>
       </c>
       <c r="E238">
-        <v>5000</v>
+        <v>30000</v>
       </c>
       <c r="F238">
-        <v>499419011</v>
+        <v>3122132132</v>
       </c>
       <c r="G238">
-        <v>0</v>
+        <v>7601</v>
       </c>
       <c r="H238" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>791044211.1777334</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -7762,13 +7768,13 @@
         <v>5000</v>
       </c>
       <c r="F239">
-        <v>499656749</v>
+        <v>499419011</v>
       </c>
       <c r="G239">
         <v>0</v>
       </c>
       <c r="H239" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I239">
         <v>0</v>
@@ -7788,16 +7794,16 @@
         <v>130</v>
       </c>
       <c r="E240">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="F240">
-        <v>599302814</v>
+        <v>499656749</v>
       </c>
       <c r="G240">
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I240">
         <v>0</v>
@@ -7817,16 +7823,16 @@
         <v>131</v>
       </c>
       <c r="E241">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="F241">
-        <v>499419011</v>
+        <v>599302814</v>
       </c>
       <c r="G241">
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I241">
         <v>0</v>
@@ -7846,16 +7852,16 @@
         <v>132</v>
       </c>
       <c r="E242">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="F242">
-        <v>199767605</v>
+        <v>499419011</v>
       </c>
       <c r="G242">
         <v>0</v>
       </c>
       <c r="H242" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I242">
         <v>0</v>
@@ -7875,16 +7881,16 @@
         <v>133</v>
       </c>
       <c r="E243">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="F243">
-        <v>998838023</v>
+        <v>199767605</v>
       </c>
       <c r="G243">
         <v>0</v>
       </c>
       <c r="H243" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I243">
         <v>0</v>
@@ -7904,19 +7910,19 @@
         <v>134</v>
       </c>
       <c r="E244">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="F244">
-        <v>2996514069</v>
+        <v>998838023</v>
       </c>
       <c r="G244">
-        <v>0</v>
+        <v>4156</v>
       </c>
       <c r="H244" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I244">
-        <v>0</v>
+        <v>415117082.3588001</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -7930,19 +7936,19 @@
         <v>13</v>
       </c>
       <c r="D245" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E245">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="F245">
-        <v>9988380229</v>
+        <v>998838023</v>
       </c>
       <c r="G245">
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I245">
         <v>0</v>
@@ -7959,19 +7965,19 @@
         <v>13</v>
       </c>
       <c r="D246" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E246">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="F246">
-        <v>998838023</v>
+        <v>2996514069</v>
       </c>
       <c r="G246">
         <v>0</v>
       </c>
       <c r="H246" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I246">
         <v>0</v>
@@ -7988,19 +7994,19 @@
         <v>13</v>
       </c>
       <c r="D247" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E247">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="F247">
-        <v>499419011</v>
+        <v>9988380229</v>
       </c>
       <c r="G247">
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I247">
         <v>0</v>
@@ -8017,22 +8023,22 @@
         <v>13</v>
       </c>
       <c r="D248" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E248">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="F248">
-        <v>1698024639</v>
+        <v>998838023</v>
       </c>
       <c r="G248">
-        <v>0</v>
+        <v>4156</v>
       </c>
       <c r="H248" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I248">
-        <v>0</v>
+        <v>415117082.3588001</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -8046,19 +8052,19 @@
         <v>13</v>
       </c>
       <c r="D249" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E249">
-        <v>80000</v>
+        <v>10000</v>
       </c>
       <c r="F249">
-        <v>7988802281</v>
+        <v>998838023</v>
       </c>
       <c r="G249">
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I249">
         <v>0</v>
@@ -8075,19 +8081,19 @@
         <v>13</v>
       </c>
       <c r="D250" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E250">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F250">
-        <v>998600285</v>
+        <v>499419011</v>
       </c>
       <c r="G250">
         <v>0</v>
       </c>
       <c r="H250" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I250">
         <v>0</v>
@@ -8098,28 +8104,28 @@
         <v>249</v>
       </c>
       <c r="B251" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="C251" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D251" t="s">
         <v>139</v>
       </c>
       <c r="E251">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="F251">
-        <v>1039477834</v>
+        <v>1698024639</v>
       </c>
       <c r="G251">
-        <v>0</v>
+        <v>8156</v>
       </c>
       <c r="H251" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I251">
-        <v>0</v>
+        <v>814652291.5108235</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -8127,25 +8133,25 @@
         <v>250</v>
       </c>
       <c r="B252" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="C252" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D252" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E252">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="F252">
-        <v>520355355</v>
+        <v>1698024639</v>
       </c>
       <c r="G252">
         <v>0</v>
       </c>
       <c r="H252" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I252">
         <v>0</v>
@@ -8156,25 +8162,25 @@
         <v>251</v>
       </c>
       <c r="B253" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="C253" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D253" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E253">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="F253">
-        <v>3122132132</v>
+        <v>7988802281</v>
       </c>
       <c r="G253">
         <v>0</v>
       </c>
       <c r="H253" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I253">
         <v>0</v>
@@ -8185,28 +8191,28 @@
         <v>252</v>
       </c>
       <c r="B254" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="C254" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D254" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E254">
         <v>10000</v>
       </c>
       <c r="F254">
-        <v>1020467042</v>
+        <v>998600285</v>
       </c>
       <c r="G254">
-        <v>7601</v>
+        <v>0</v>
       </c>
       <c r="H254" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I254">
-        <v>775656998.6242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -8217,22 +8223,22 @@
         <v>44405</v>
       </c>
       <c r="C255" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D255" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E255">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="F255">
-        <v>1352923924</v>
+        <v>1039477834</v>
       </c>
       <c r="G255">
         <v>0</v>
       </c>
       <c r="H255" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I255">
         <v>0</v>
@@ -8246,22 +8252,22 @@
         <v>44405</v>
       </c>
       <c r="C256" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D256" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E256">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="F256">
-        <v>699353032</v>
+        <v>520355355</v>
       </c>
       <c r="G256">
         <v>0</v>
       </c>
       <c r="H256" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I256">
         <v>0</v>
@@ -8275,22 +8281,22 @@
         <v>44405</v>
       </c>
       <c r="C257" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D257" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E257">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="F257">
-        <v>799260609</v>
+        <v>3122132132</v>
       </c>
       <c r="G257">
         <v>0</v>
       </c>
       <c r="H257" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I257">
         <v>0</v>
@@ -8304,25 +8310,25 @@
         <v>44405</v>
       </c>
       <c r="C258" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D258" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E258">
-        <v>66000</v>
+        <v>10000</v>
       </c>
       <c r="F258">
-        <v>6593900021</v>
+        <v>1020467042</v>
       </c>
       <c r="G258">
-        <v>0</v>
+        <v>7601</v>
       </c>
       <c r="H258" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I258">
-        <v>0</v>
+        <v>775656998.6242</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -8333,22 +8339,22 @@
         <v>44405</v>
       </c>
       <c r="C259" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D259" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E259">
-        <v>60000</v>
+        <v>13000</v>
       </c>
       <c r="F259">
-        <v>5994454565</v>
+        <v>1352923924</v>
       </c>
       <c r="G259">
         <v>0</v>
       </c>
       <c r="H259" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I259">
         <v>0</v>
@@ -8365,19 +8371,19 @@
         <v>13</v>
       </c>
       <c r="D260" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E260">
-        <v>70000</v>
+        <v>7000</v>
       </c>
       <c r="F260">
-        <v>6993530325</v>
+        <v>699353032</v>
       </c>
       <c r="G260">
         <v>0</v>
       </c>
       <c r="H260" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I260">
         <v>0</v>
@@ -8394,19 +8400,19 @@
         <v>13</v>
       </c>
       <c r="D261" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E261">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="F261">
-        <v>599445456</v>
+        <v>799260609</v>
       </c>
       <c r="G261">
         <v>0</v>
       </c>
       <c r="H261" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I261">
         <v>0</v>
@@ -8423,22 +8429,22 @@
         <v>13</v>
       </c>
       <c r="D262" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E262">
-        <v>15000</v>
+        <v>66000</v>
       </c>
       <c r="F262">
-        <v>1498613641</v>
+        <v>6593900021</v>
       </c>
       <c r="G262">
-        <v>9000</v>
+        <v>51000</v>
       </c>
       <c r="H262" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I262">
-        <v>899168184.6</v>
+        <v>5095286379.863636</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -8452,22 +8458,22 @@
         <v>13</v>
       </c>
       <c r="D263" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E263">
-        <v>84000</v>
+        <v>66000</v>
       </c>
       <c r="F263">
-        <v>8390239392</v>
+        <v>6593900021</v>
       </c>
       <c r="G263">
-        <v>84000</v>
+        <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I263">
-        <v>8390239392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -8481,22 +8487,22 @@
         <v>13</v>
       </c>
       <c r="D264" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E264">
-        <v>6000</v>
+        <v>60000</v>
       </c>
       <c r="F264">
-        <v>599302814</v>
+        <v>5994454565</v>
       </c>
       <c r="G264">
-        <v>6000</v>
+        <v>53000</v>
       </c>
       <c r="H264" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I264">
-        <v>599302814</v>
+        <v>5295101532.416666</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -8510,21 +8516,253 @@
         <v>13</v>
       </c>
       <c r="D265" t="s">
+        <v>147</v>
+      </c>
+      <c r="E265">
+        <v>60000</v>
+      </c>
+      <c r="F265">
+        <v>5994454565</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265" t="s">
+        <v>155</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" s="2">
+        <v>44405</v>
+      </c>
+      <c r="C266" t="s">
+        <v>13</v>
+      </c>
+      <c r="D266" t="s">
+        <v>148</v>
+      </c>
+      <c r="E266">
+        <v>70000</v>
+      </c>
+      <c r="F266">
+        <v>6993530325</v>
+      </c>
+      <c r="G266">
+        <v>58000</v>
+      </c>
+      <c r="H266" t="s">
+        <v>156</v>
+      </c>
+      <c r="I266">
+        <v>5794639412.142858</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" s="2">
+        <v>44405</v>
+      </c>
+      <c r="C267" t="s">
+        <v>13</v>
+      </c>
+      <c r="D267" t="s">
+        <v>148</v>
+      </c>
+      <c r="E267">
+        <v>70000</v>
+      </c>
+      <c r="F267">
+        <v>6993530325</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+      <c r="H267" t="s">
+        <v>155</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" s="2">
+        <v>44405</v>
+      </c>
+      <c r="C268" t="s">
+        <v>13</v>
+      </c>
+      <c r="D268" t="s">
+        <v>149</v>
+      </c>
+      <c r="E268">
+        <v>6000</v>
+      </c>
+      <c r="F268">
+        <v>599445456</v>
+      </c>
+      <c r="G268">
+        <v>4000</v>
+      </c>
+      <c r="H268" t="s">
+        <v>156</v>
+      </c>
+      <c r="I268">
+        <v>399630304</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" s="2">
+        <v>44405</v>
+      </c>
+      <c r="C269" t="s">
+        <v>13</v>
+      </c>
+      <c r="D269" t="s">
+        <v>149</v>
+      </c>
+      <c r="E269">
+        <v>6000</v>
+      </c>
+      <c r="F269">
+        <v>599445456</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+      <c r="H269" t="s">
+        <v>155</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" s="2">
+        <v>44405</v>
+      </c>
+      <c r="C270" t="s">
+        <v>13</v>
+      </c>
+      <c r="D270" t="s">
+        <v>150</v>
+      </c>
+      <c r="E270">
+        <v>15000</v>
+      </c>
+      <c r="F270">
+        <v>1498613641</v>
+      </c>
+      <c r="G270">
+        <v>9000</v>
+      </c>
+      <c r="H270" t="s">
+        <v>156</v>
+      </c>
+      <c r="I270">
+        <v>899168184.6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" s="2">
+        <v>44405</v>
+      </c>
+      <c r="C271" t="s">
+        <v>13</v>
+      </c>
+      <c r="D271" t="s">
+        <v>151</v>
+      </c>
+      <c r="E271">
+        <v>84000</v>
+      </c>
+      <c r="F271">
+        <v>8390239392</v>
+      </c>
+      <c r="G271">
+        <v>84000</v>
+      </c>
+      <c r="H271" t="s">
+        <v>154</v>
+      </c>
+      <c r="I271">
+        <v>8390239392</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" s="2">
+        <v>44405</v>
+      </c>
+      <c r="C272" t="s">
+        <v>13</v>
+      </c>
+      <c r="D272" t="s">
         <v>152</v>
       </c>
-      <c r="E265">
+      <c r="E272">
+        <v>6000</v>
+      </c>
+      <c r="F272">
+        <v>599302814</v>
+      </c>
+      <c r="G272">
+        <v>6000</v>
+      </c>
+      <c r="H272" t="s">
+        <v>154</v>
+      </c>
+      <c r="I272">
+        <v>599302814</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" s="2">
+        <v>44405</v>
+      </c>
+      <c r="C273" t="s">
+        <v>13</v>
+      </c>
+      <c r="D273" t="s">
+        <v>153</v>
+      </c>
+      <c r="E273">
         <v>10000</v>
       </c>
-      <c r="F265">
+      <c r="F273">
         <v>999075761</v>
       </c>
-      <c r="G265">
+      <c r="G273">
         <v>10000</v>
       </c>
-      <c r="H265" t="s">
+      <c r="H273" t="s">
         <v>154</v>
       </c>
-      <c r="I265">
+      <c r="I273">
         <v>999075761</v>
       </c>
     </row>
